--- a/convertExcel/questions.xlsx
+++ b/convertExcel/questions.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\PycharmProjects\FacultyGamePhaser\convertExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BCC8A4-F29F-4C21-A800-0F10029B307B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED0F2D2-610A-48E7-99C7-986BCD8789B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="8722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
+    <sheet name="questionsH" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk60125829" localSheetId="0">questions!$B$45</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1534">
   <si>
     <t>fact</t>
   </si>
@@ -1854,9 +1855,6 @@
     <t>Which statement is true about teens?</t>
   </si>
   <si>
-    <t>What is a mentionednegetive aspect of the internet?</t>
-  </si>
-  <si>
     <t>In the 1830s Ketchup was sold as:</t>
   </si>
   <si>
@@ -1896,9 +1894,6 @@
     <t>Heal faster</t>
   </si>
   <si>
-    <t>Most musicians wrtie sad songs</t>
-  </si>
-  <si>
     <t>Change colors</t>
   </si>
   <si>
@@ -2289,9 +2284,6 @@
     <t>A music label from India</t>
   </si>
   <si>
-    <t xml:space="preserve">Slander is contant unwanted online adds </t>
-  </si>
-  <si>
     <t>Left before even sending a single Tweet</t>
   </si>
   <si>
@@ -2514,12 +2506,6 @@
     <t>If the egg is fresh it will sink to the bottom quickly, if the egg is not fresh- it will float</t>
   </si>
   <si>
-    <t>If the egg is fresh it foat, if the egg is not fresh- it will crack</t>
-  </si>
-  <si>
-    <t>If the egg is fresh it shrink, if the egg is not fresh- it will stay the same size</t>
-  </si>
-  <si>
     <t>Because sweat is human waste and human waste is stinky</t>
   </si>
   <si>
@@ -2572,13 +2558,2122 @@
   </si>
   <si>
     <t>Because sweat is our bodies way of telling us we are over heating, the smell is like an alarm</t>
+  </si>
+  <si>
+    <t>דולפינים יכולים להסתכל לשני כיוונים שונים בו זמנית, כל עין לכיוון אחר. הם גם יכולים לישון עם עין אחת פתוחה.</t>
+  </si>
+  <si>
+    <t>חוש הריח של הכלב כל כך טוב שהוא יכול לזהות כפית סוכר במיליון ליטרים של מים.</t>
+  </si>
+  <si>
+    <t>משקלו של פיל נע בין 2700 ל6000 ק"ג. הפיל הוא החיה היחידה בעולם שלא יכולה לקפוץ.</t>
+  </si>
+  <si>
+    <t>לדב קואלה טביעת אצבע כמעט זהה לזו של בני אדם. העובדה הטעתה את המשטרה כבר מספר פעמים בעבר.</t>
+  </si>
+  <si>
+    <t>חתולים בוגרים מייללים רק כדי לתקשר עם בני אדם, הם אינם מייללים כדי לתקשר עם חתולים אחרים.</t>
+  </si>
+  <si>
+    <t>עטלפים יולדים כשהם תלויים הפוך. על האמא לתפוס את התינוק החדש בכנפיה לפני נפילתו לאדמה.</t>
+  </si>
+  <si>
+    <t>הקנגורו שומר על איזון בעזרת הזנב שלו, כך שאם נרים את זנב הקנגורו מהקרקע, הוא לא יוכל לקפוץ.</t>
+  </si>
+  <si>
+    <t>ג'ירפות וחולדות יכולות לשרוד בלי מים לתקופה ארוכה יותר מגמלים.</t>
+  </si>
+  <si>
+    <t>וומבט הוא בעל החיים יחיד שמייצר צואה בצורת קובייה. הם נעזרים בערימות כדי לסמן את הטריטוריה. הצורה מונעת מהצואה להתגלגל מהמקום.</t>
+  </si>
+  <si>
+    <t>העובדה ששפריריות יכולות לעוף עד מהירות של תשעים ושישה ק"מש, הופכת אותן לחרק המהיר ביותר בעולם. זה חשוב, כי אורך החיים שלהן הוא רק כ-עשרים וארבע שעות.</t>
+  </si>
+  <si>
+    <t>פלמינגו הוא לא באמת חיה ורודה. הפלמינגו נולד בצבע אפרפר וכתוצאה מצבע המאכלים שנוהג לאכול, כמו שרימפס ואצה, הנוצות שלו מקבלות פיגמנט ורוד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חסילון הוא החיה הרועשת בעולם וגבהה רק שני ס"מ! הצליל שהחסילון משמיע כשהוא מקיש בצבתותיו עולה על 218 דציבלים וחזק יותר מרעש של אקדח. </t>
+  </si>
+  <si>
+    <t>דולפינים יכולים לישון:</t>
+  </si>
+  <si>
+    <t>עם עין אחת פתוחה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עם עיניים פתוחות </t>
+  </si>
+  <si>
+    <t>הפוך</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אף תשובה אינה נכונה </t>
+  </si>
+  <si>
+    <t>חוש הריח של כלבים הוא:</t>
+  </si>
+  <si>
+    <t>טוב מאוד</t>
+  </si>
+  <si>
+    <t>לא טוב בכלל</t>
+  </si>
+  <si>
+    <t>לכלבים אין חוש ריח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תלוי בכלב </t>
+  </si>
+  <si>
+    <t>200,00 יענים נבדקו והתגלה שלאורך 80 שנה אף יען לא תקע את ראשו בחול.</t>
+  </si>
+  <si>
+    <t>200,00 יענים נבדקו לאורך 80 שנה והתגלה כי:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יעני אוהבים מזג אוויר חמים </t>
+  </si>
+  <si>
+    <t>יענים אינם תוקעים את ראשם בחול</t>
+  </si>
+  <si>
+    <t>יענים לא אוהבים מים</t>
+  </si>
+  <si>
+    <t>יענים מפחדים מהחושך</t>
+  </si>
+  <si>
+    <t>איזו חיה היא החיה היחידה בעולם שלא יכולה לקפוץ?</t>
+  </si>
+  <si>
+    <t>אירה</t>
+  </si>
+  <si>
+    <t>פיל</t>
+  </si>
+  <si>
+    <t>יען</t>
+  </si>
+  <si>
+    <t>דב קואלה</t>
+  </si>
+  <si>
+    <t>השלימו את המשפט: לדב קואלה ולבני אדם ___ כמעט זהה.</t>
+  </si>
+  <si>
+    <t>בהונות</t>
+  </si>
+  <si>
+    <t>טביעת אצבע</t>
+  </si>
+  <si>
+    <t>טביעת לשון</t>
+  </si>
+  <si>
+    <t>ברכיים</t>
+  </si>
+  <si>
+    <t>חתולים בוגרים מייללים כדי לתקשר עם:</t>
+  </si>
+  <si>
+    <t>חתולים אחרים</t>
+  </si>
+  <si>
+    <t>בני אדם</t>
+  </si>
+  <si>
+    <t>חיות אחרות</t>
+  </si>
+  <si>
+    <t>אך תשובה אינה נכונה</t>
+  </si>
+  <si>
+    <t>מה ייחודי בלידה של עטלף?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הם יולדים כשהם תלויים הפוך </t>
+  </si>
+  <si>
+    <t>הם יולדים בחושך</t>
+  </si>
+  <si>
+    <t>הם יודלים בממקור מים טבעי</t>
+  </si>
+  <si>
+    <t>הם יולדים בזמן שהם עפים</t>
+  </si>
+  <si>
+    <t>הקנגורו שומר על איזון בעזרת הזנב שלו, כך שאם נרים את זנב הקנגורו מהקרקע:</t>
+  </si>
+  <si>
+    <t>הקנגורו יפול</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הקנגורו לא יצליח ללכת </t>
+  </si>
+  <si>
+    <t>הקנגורו לא יצליח לקפןץ</t>
+  </si>
+  <si>
+    <t>הקנגורו לא יצליח לראות ישר</t>
+  </si>
+  <si>
+    <t>אילו חיות יכולות לשרוד בלי מים לתקופה ארוכה יותר מגמלים?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פילים ונמרים </t>
+  </si>
+  <si>
+    <t>קנגורו ועטלפים</t>
+  </si>
+  <si>
+    <t>ג'ירפות וחולדות</t>
+  </si>
+  <si>
+    <t>פלמינגו ויענים</t>
+  </si>
+  <si>
+    <t>וומבט הוא בעל החיים יחיד שמייצר צואה בצורת קובייה. הם נעזרים בערימות:</t>
+  </si>
+  <si>
+    <t>לסימון טריטוריה</t>
+  </si>
+  <si>
+    <t>לבניית קן</t>
+  </si>
+  <si>
+    <t>כדי לעקוב אחד אחרי השני</t>
+  </si>
+  <si>
+    <t>לצייד</t>
+  </si>
+  <si>
+    <t>מיהו החרק המהיר ביותר בעולם?</t>
+  </si>
+  <si>
+    <t>נמלה</t>
+  </si>
+  <si>
+    <t>דבורה</t>
+  </si>
+  <si>
+    <t>שפרירית</t>
+  </si>
+  <si>
+    <t>יתוש</t>
+  </si>
+  <si>
+    <t>פלמינגו הוא לא באמת חיה ורודה. הפלמינגו נולד בצבע:</t>
+  </si>
+  <si>
+    <t>כתום</t>
+  </si>
+  <si>
+    <t>אדום</t>
+  </si>
+  <si>
+    <t>אפור</t>
+  </si>
+  <si>
+    <t>חום</t>
+  </si>
+  <si>
+    <t>איו חיה היא החיה הרועשת ביותר בעולם?</t>
+  </si>
+  <si>
+    <t>יונקי דבש</t>
+  </si>
+  <si>
+    <t>חסילון</t>
+  </si>
+  <si>
+    <t>כלב</t>
+  </si>
+  <si>
+    <t>חזיר</t>
+  </si>
+  <si>
+    <t>אלברט איינשטיין היה יהודי. אמנם לא היה אזרח ישראלי, אך בשנת 1952 הוצע לו להיות ראש ממשלת ישראל וסירב.</t>
+  </si>
+  <si>
+    <t>האפיפיור בנדיקט התשיעי היה האפיפיור הצעיר ביותר בעולם בגיל 11. הוא שירת כאפיפיור בין השנים 1032 ל1048.</t>
+  </si>
+  <si>
+    <t>המגדל הנטוי של פיזה לעולם לא עמד זקוף. היוא תוכנן זקוף אך התחיל להטות כבר בשלבי הבניה.</t>
+  </si>
+  <si>
+    <t>ביוון העתיקה, לבישת חצאית נחשבה כגברית ולבישת מכנסיים נחשבה לנשית.</t>
+  </si>
+  <si>
+    <t>יום העצמאות ההולנדית נחגגת ב-5 למאי, אפילו שהולנד לא באמת שוחררה ביום אחד. העיר סכירמוניקוג שוחררה רק ביוני לאחר תום מלחמת העולם השניה.</t>
+  </si>
+  <si>
+    <t>הדגל האמריקני הנוכחי תוכנן על ידי תלמיד תיכון. הפרויקט זכה רק בציון 80 אך לאחר אישור התכנון לדגל אמריקה - המורה שינה את הציון ל100.</t>
+  </si>
+  <si>
+    <t>ההשערה הייתה כי האש הראשונה שהובערה ע"י אדם הייתה לפני 300,000-400,000 שנה. לאחרונה גילו ארכיאולוגים עקבות של מדורות מלפני מיליון שנה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מספרים ערביים הם לא באמת בערבית. המספרים הומצאו בהודו. </t>
+  </si>
+  <si>
+    <t>קנדה ודנמרק נלחמים על השליטה באי האנס ליד גרינלנד כבר למעלה מ -30 שנה. כאשר פקידים מכל מדינה מבקרים באי, הם משאירים בקבוק עם סימן של מדינתם כצעד כוח.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">האימפריה הבריטית הייתה האימפריה הגדולה ביותר בתולדות העולם. האימפריה הבריטית הייתה החזקה ביותר בשנות העשרים של המאה העשרים כאשר שלטה על 23 אחוז מאוכלוסיית העולם. </t>
+  </si>
+  <si>
+    <t>מגדל אייפל נבנה בין השנים 1887-1889 על ידי המהנדס הצרפתי גוסטב אייפל. מאוחר יותר נקרא המגדל על שמו של מר אייפל.</t>
+  </si>
+  <si>
+    <t>יותר מ-1,000 שפות שונות מדוברות ביבשת אפריקה.</t>
+  </si>
+  <si>
+    <t>בין השנים 1912 עד 1948 התקיימו במשחקים האולימפיים תחרויות באמנות. מדליות הוענקו לנושאים כמו ספרות, אדריכלות, פיסול, ציור ומוסיקה.</t>
+  </si>
+  <si>
+    <t>אמסטרדם הפכה לבירתה של הולנד רק לאחר נפילתו של נפוליאן בשנת 1815. על אף זאת, האג נשארה העיר הפוליטית החשובה בעולם, לכן ממשלת הולנד עדיין ממוקמת שם.</t>
+  </si>
+  <si>
+    <t>בשנת 1952 הוצע לאלברט איינשטיין להיות:</t>
+  </si>
+  <si>
+    <t>ראש ממשלת ישראל</t>
+  </si>
+  <si>
+    <t>נשיא ארצות הברית</t>
+  </si>
+  <si>
+    <t>נשיא גרמניה</t>
+  </si>
+  <si>
+    <t>ראש ממשלת קנדה</t>
+  </si>
+  <si>
+    <t>האפיפיור בנדיקט התשיעי היה האפיפיור הצעיר ביותר בעולם בגיל:</t>
+  </si>
+  <si>
+    <t>מתי המגדל הנטוי של פיזה החל להטות?</t>
+  </si>
+  <si>
+    <t>המגדל תוכנן בזווית</t>
+  </si>
+  <si>
+    <t>המגדל עמד זקוף לאחר סיום הבנייה אך נוטה יותר ויותר עם הזמן</t>
+  </si>
+  <si>
+    <t>רעיזת אדמה גרמה למגדל הנטוי של פיזה להטות, שנים לאחר סיום הבנייה</t>
+  </si>
+  <si>
+    <t>המגדל החל להטות כבר בזמן הבנייה</t>
+  </si>
+  <si>
+    <t>מראה אלגנטי ומהודר</t>
+  </si>
+  <si>
+    <t>נשית</t>
+  </si>
+  <si>
+    <t>גברית</t>
+  </si>
+  <si>
+    <t>חוצפה</t>
+  </si>
+  <si>
+    <t>ביוון העתיקה, לבישת חצאית נחשבה כ:</t>
+  </si>
+  <si>
+    <t>יום העצמאות ההולנדית נחגגת:</t>
+  </si>
+  <si>
+    <t>למשך כל חודש מאי</t>
+  </si>
+  <si>
+    <t>ב5 למאי</t>
+  </si>
+  <si>
+    <t>למשך כל חודש יוני</t>
+  </si>
+  <si>
+    <t>ב5 ליוני</t>
+  </si>
+  <si>
+    <t>מי עיצב את דגל ארצות הברית?</t>
+  </si>
+  <si>
+    <t>תלמיד תיכון</t>
+  </si>
+  <si>
+    <t>סטודנט באוניברסיטה</t>
+  </si>
+  <si>
+    <t>נשיא ארצות הברית הראשון</t>
+  </si>
+  <si>
+    <t>חקלאי פשוט מצפון ארצות הברית</t>
+  </si>
+  <si>
+    <t>ההשערה הייתה כי האש הראשונה שהובערה ע"י אדם הייתה לפני:</t>
+  </si>
+  <si>
+    <t>מספר שנים שאינו ידוע לנו</t>
+  </si>
+  <si>
+    <t>מיליון שנה</t>
+  </si>
+  <si>
+    <t>500 שנה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200,000 שנה </t>
+  </si>
+  <si>
+    <t>היכן הומאצו מספרים ערביים?</t>
+  </si>
+  <si>
+    <t>בישראל</t>
+  </si>
+  <si>
+    <t>בארצות הברית</t>
+  </si>
+  <si>
+    <t>בהודו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בתאילנד </t>
+  </si>
+  <si>
+    <t>קנדה ודנמרק נלחמים על השליטה באי האנס. כשפקידים מכל מדינה מבקרים באי, כצעד כח- הם:</t>
+  </si>
+  <si>
+    <t>מלחינים שירים על מסעם לאי</t>
+  </si>
+  <si>
+    <t>משאירים בקבוק עם סימן של מדינתם</t>
+  </si>
+  <si>
+    <t>תולים דגל של מדינתם באי</t>
+  </si>
+  <si>
+    <t>אךף תשובה אינה נכונה</t>
+  </si>
+  <si>
+    <t>איזו אימפריה הייתה האימפריה החזקה ביותר בהיסטוריית העולם?</t>
+  </si>
+  <si>
+    <t>האימפריה הספרדית</t>
+  </si>
+  <si>
+    <t>האימפריה הבריטית</t>
+  </si>
+  <si>
+    <t>האימפריה המונגולית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">האימריה הרוסית </t>
+  </si>
+  <si>
+    <t>מי בנה את מגדל אייפל?</t>
+  </si>
+  <si>
+    <t>מהנדס צרפתי בשם גוסטב אייפל</t>
+  </si>
+  <si>
+    <t>משפחת אייפל שכרה מהנדס לבניית המגדל</t>
+  </si>
+  <si>
+    <t>אמן צרפתי בשם פרנסיס אייפל</t>
+  </si>
+  <si>
+    <t>תכנון ובניית מגדל אייפל נמשכה כמה דורות. כלומר אחריות בניית המגדל אינו מוטלת על אף אדם יחיד</t>
+  </si>
+  <si>
+    <t>כמה שפות מודברות ביבשת אפריקה?</t>
+  </si>
+  <si>
+    <t>פחות מ1,000</t>
+  </si>
+  <si>
+    <t>יותר מ1,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יותר ממיליון </t>
+  </si>
+  <si>
+    <t>איזה קטגוריה של משחקים התקיימו בתחרויות האוליפיות בין השנים 1912-1948?</t>
+  </si>
+  <si>
+    <t>תחרויות באומנות</t>
+  </si>
+  <si>
+    <t>תחרויות בשחמט</t>
+  </si>
+  <si>
+    <t>מירוץ מכוניות</t>
+  </si>
+  <si>
+    <t>תחרויות בכדרוגל</t>
+  </si>
+  <si>
+    <t>למה בירתה של הולנד ממוקמת בהאג ולא באמסטרדם, בירתה?</t>
+  </si>
+  <si>
+    <t>בגלל שהאג היא העיר הפוליטית החשובה בעולם</t>
+  </si>
+  <si>
+    <t>בגלל שאמסטרדם פחות יפה מהאג</t>
+  </si>
+  <si>
+    <t>בגלל שאמסטרדם היא לא באמת בירתה הרישמית של הולנד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בגלל שהמיקום של האג בהולנד הרבה יותר טובה ממיקומה של אמסטרדם </t>
+  </si>
+  <si>
+    <t>כ204 מיליון אימיילים נשלחים כל דקה באינטרנט. 70% מהאימיילים הנשלחים הם ספאם.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גוגל מעבד עד 100 ביליון חיפושים בחודש! כלומר בכל שניה מתבצעים בממוצע 40,000 חיפושים. </t>
+  </si>
+  <si>
+    <t>עד 300,000 אתרי אינטרנט נפרצים בכל יום. פושעי סייבר נעזרים בתוכנות מחשב משוכללות לפרוץ באופן אוטומטי לאתרים פגיעים.</t>
+  </si>
+  <si>
+    <t>"השיר בייבי שרק" הוא השיר הכי נצפה ביוטיוב. השיר זכה ליותר מ7 מילאירד צפיות מאז העלתו ב2016.</t>
+  </si>
+  <si>
+    <t>האימייל הראשון נשלח בשנת 1971. השולח, היה ממציא האימיילים ריי טומלינסון והוא שלח את האימייל לעצמו.</t>
+  </si>
+  <si>
+    <t>האתר הראשון בעולם הוקם בשנת 1991 ע"י חברת סרן השוויצרית. האתר עדיין מתפקד כיום.</t>
+  </si>
+  <si>
+    <t>משקל האינטרנט זהה למשקלו של תות שדה בודד. המשקל של האינטרנט מורכב ממליארדי אלקטרוני דאטא בתזוזה.</t>
+  </si>
+  <si>
+    <t>הדו"ח האחרון של דיגיטל 2019 מציג כי כל אדם מקדיש  בממוצע 6 שעות ו -42 דקות באינטרנט בכל יום.</t>
+  </si>
+  <si>
+    <t>בשנת 2016 יותר מ15 מיליון מכשירים המחוברים לאינרטרנט נשלחו ברחבי העולם.</t>
+  </si>
+  <si>
+    <t>השימוש הפופולרי ביותר באינטרנט הוא דואר אלקטרוני. כ- 85% ממשתמשי האינטרנט שולחים ומקבלים דואר אלקטרוני. כ -20 מיליון מיילים נשלחים מדי שבוע.</t>
+  </si>
+  <si>
+    <t>סרטון הרשת הראשון הוא מאוניברסיטת קיימברידג'. נושא הסרטון היה סיר של קפה.</t>
+  </si>
+  <si>
+    <t>בית חכם הוא בית המחובר לאינטרנט וניתן לשלוט באביזרים בבית באמצעות מכשירים אישיים. ישנם כיום 150 מיליון בתים חכמים ברחבי העולם.</t>
+  </si>
+  <si>
+    <t>כיום האינטרנט דורש 50 מיליון כוחות סוס לריצה.</t>
+  </si>
+  <si>
+    <t>כמות המכשירים המחוברים לאינטרנט גדולה מכמות האנשים בעולם!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אסיה מדורגת היבשת עם הכי הרבה משתמשים אינטרנטיים בעולם: יותר מ-35% מסכום המשתמשים הכולל. אחריו אירופה בדירוגה השני בעולם, עם 30%, וארה"ב בדירוג השלישי עם כ-20% מסך המשתמשים. </t>
+  </si>
+  <si>
+    <t>70% מכל האימיילים שנשלחים הם:</t>
+  </si>
+  <si>
+    <t>למטרות עבודה</t>
+  </si>
+  <si>
+    <t>ספאם</t>
+  </si>
+  <si>
+    <t>וירוסים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בקשות או אישורים </t>
+  </si>
+  <si>
+    <t>כמה חיפושים גוגל מעבד בחודש?</t>
+  </si>
+  <si>
+    <t>בערך מיליון</t>
+  </si>
+  <si>
+    <t>עד 100 מיליארד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אין דרך לדעת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אין לנו דרך לדעת </t>
+  </si>
+  <si>
+    <t>איך פושעי סייבר פורצים לאתרי אינטרנט?</t>
+  </si>
+  <si>
+    <t>הם נעזרים בתוכנות מחשב משוכללות לפרוץ באופן אוטומטי לאתרים פגיעים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הם פורצים לבתיהם של בעלי האתרים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הם פורצים לאלפי אתרים עד שמצליחים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">פושעי סייבר אינם פורצים לאתרים בכוונהץ רוב הפריצות מתבצעות בטעות </t>
+  </si>
+  <si>
+    <t>השיר הכי נצפה ביוטוב הוא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גנגם סטייל </t>
+  </si>
+  <si>
+    <t>דספסיטו</t>
+  </si>
+  <si>
+    <t>בייבי שרק</t>
+  </si>
+  <si>
+    <t>שייק איט אוף</t>
+  </si>
+  <si>
+    <t>מי שלח את האימייל הראשון?</t>
+  </si>
+  <si>
+    <t>ריי טומילינסון: ממציא האימיילים</t>
+  </si>
+  <si>
+    <t>ריי טומילינסון: ממציא האינרנט</t>
+  </si>
+  <si>
+    <t>ריי טומילינסון: ממציא המחשבים</t>
+  </si>
+  <si>
+    <t>ריי טומילינסון: שהמציא את פייסבוק</t>
+  </si>
+  <si>
+    <t>מה קרה לאתר הראשון בעולם- של חברת סרן השוויצרית?</t>
+  </si>
+  <si>
+    <t>האתר נסגר לאחר כמה שנים</t>
+  </si>
+  <si>
+    <t>האתר לעולם לא פעל</t>
+  </si>
+  <si>
+    <t>החברה התפרקה- האתר כבר אינו רלוונטי</t>
+  </si>
+  <si>
+    <t>כלום. האתר עדיין מתפקד כיום</t>
+  </si>
+  <si>
+    <t>משקלו של האינטרנטשקול למשקלו של:</t>
+  </si>
+  <si>
+    <t>תות שדה בודד</t>
+  </si>
+  <si>
+    <t>שדה של תותים</t>
+  </si>
+  <si>
+    <t>מיליארד תותים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא ניתן למדוד את משקלו של האינטרנט </t>
+  </si>
+  <si>
+    <t>כמה שעות בממוצע מקדיש כל אדם לשימוש באינטרנט?</t>
+  </si>
+  <si>
+    <t>חצי שעה</t>
+  </si>
+  <si>
+    <t>שעתיים</t>
+  </si>
+  <si>
+    <t>6 שעות</t>
+  </si>
+  <si>
+    <t>10 שעות</t>
+  </si>
+  <si>
+    <t>כמה מכשירים המחוברים לאינטרנט הופצו ברחבי העולם בשנת 2016?</t>
+  </si>
+  <si>
+    <t>פחות ממיליארד</t>
+  </si>
+  <si>
+    <t>יותר מ15 מיליארד</t>
+  </si>
+  <si>
+    <t>מהו השימוש הפופולרי ביותר לאינרנט?</t>
+  </si>
+  <si>
+    <t>יוטיוב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סרטים </t>
+  </si>
+  <si>
+    <t>אימיילים</t>
+  </si>
+  <si>
+    <t>בלוגים</t>
+  </si>
+  <si>
+    <t>מה היה נושא סרטון הרשת הראשון בעולם?</t>
+  </si>
+  <si>
+    <t>סיר של קפה</t>
+  </si>
+  <si>
+    <t>ביצה</t>
+  </si>
+  <si>
+    <t>גור כלבים</t>
+  </si>
+  <si>
+    <t>הרצאה מוקלטת</t>
+  </si>
+  <si>
+    <t>מה זה בית חכם?</t>
+  </si>
+  <si>
+    <t>בית המחובר לאינטרנט וניתן לשלוט באביזרים בבית באמצעות מכשירים אישיים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כל בית הוא בית חכם </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כל בית עם חשמל נחשב כבית חכם </t>
+  </si>
+  <si>
+    <t>בית שנבנה מאן במקום עץ</t>
+  </si>
+  <si>
+    <t>כמה כוחות סוס דורשת האינטרנט כדי לרוץ היום?</t>
+  </si>
+  <si>
+    <t>500 כוחות סוס</t>
+  </si>
+  <si>
+    <t>50 מיליון כוחות סוס</t>
+  </si>
+  <si>
+    <t>500 וואט</t>
+  </si>
+  <si>
+    <t>מיליון וואט</t>
+  </si>
+  <si>
+    <t>השלימו את המשפט: ישנם יותר מכשירים המחוברים לאינרנט מ:</t>
+  </si>
+  <si>
+    <t>אנשים בעולם</t>
+  </si>
+  <si>
+    <t>חיות בעולם</t>
+  </si>
+  <si>
+    <t>חרקים בעולם</t>
+  </si>
+  <si>
+    <t>כוכבים בשמים</t>
+  </si>
+  <si>
+    <t>באיזו יבשת יש את מספר המשתמשים האינטרנטיים הגדול ביותר בעולם?</t>
+  </si>
+  <si>
+    <t>אפריקה</t>
+  </si>
+  <si>
+    <t>אסיה</t>
+  </si>
+  <si>
+    <t>אוסטרליה</t>
+  </si>
+  <si>
+    <t>אמריקה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מיחזור של פחית אלומיניום אחת יכולה לחסוך מספיק אנרגיה כדי להדליק נורה של 100 וואט למשך 20 שעות וטלוויזיה למשך שעתיים. </t>
+  </si>
+  <si>
+    <t>פלוץ של פרה פוגעת בסביבה יותר מכל חיה אחרת- כיוון שהרכב גז המתאן חזק פי 20 מפחמן דו חמצני.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פארקים וסביבות "ירוקות" אחרות יכולים להפחית חרדות, מתח ותסמינים של הפרעות קשב וריכוז, ולקדם את בריאות הנפש הכללית. </t>
+  </si>
+  <si>
+    <t>ניתן להשתמש באחוז 1 בלבד מכל המים בעולם. 97% מהמים הם מי ים מלוחים ו-2% הם מים קפואים.</t>
+  </si>
+  <si>
+    <t>משוער כי 50,000 מיני בעלי חיים נכחדים מידי שנה ביערות הטרופיים שלנו. לפי השערה זו - 137 מינים בממוצע נכחדים מידי יום.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ניתן למחזר נייר עד 6 פעמים. לאחר מכן הסיבים חלשים מכדי להחזיק אותו. </t>
+  </si>
+  <si>
+    <t>ישנן תחזיות האומרות שלא יהיה קרח בקוטב הצפוני בשנת 2040. אחרים טוענים שהדבר יקרה רק ב2060, ואחרים, רק ב2105.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מתכות רעילות ממכשירים אלקטרוניים שאנחנו זורקים נספגות באדמה, במים ובאטמוספירה. זרמי הפסולת של פסולת אלקטרונית הן המהירות ביותר והמסוכנות ביותר. </t>
+  </si>
+  <si>
+    <t>האבק ממדבר סהרה עובר מעל האוקיאנוס האטלנטי עד ליער האמזונס בצד השני של העולם. יער הגשם של האמזונס תלוי בזרחן שבאבק על מנת לפרוח.</t>
+  </si>
+  <si>
+    <t>באוקיינוס התגלתה סוג אבן חדשה שנוצרה משאריות פלסטיק.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חקלאות אורגנית אינה תמיד טובה יותר לסביבה מחקלאות קונבנציונלית. הסיבה נובעת באופן חלקי מתפוקת יבול נמוכה יותר ושימוש בחומרי הדברה "טבעיים" רעילים. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">פני כדור הארץ מורכב מכ-60% מים ו-10% קרח. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בכל יום נכרתים 27,000 עצים לייצור נייר טואלט. </t>
+  </si>
+  <si>
+    <t>על פי הערכות מדענים - יש יותר עצים על פני האדמה מאשר כוכבים בשביל החלב. ישנם כ 3.04 טריליון עצים, ואך רק בין 100-400 מיליארד כוכבים.</t>
+  </si>
+  <si>
+    <t>התחממות כדור הארץ עלולה לגרום לשינויים בטמפרטורה, מחסור במים, שריפות ועוד. התחממות כדור הארץ מתרחשת כאשר פחמן דו חמצני וגזי חממה נאספים באטמוספרה.</t>
+  </si>
+  <si>
+    <t>כדי להדליק נורה למשך 20 שעות וטלוויזיה למך שעתיים, מספיק למחזר:</t>
+  </si>
+  <si>
+    <t>פחית אלומיניום אחת</t>
+  </si>
+  <si>
+    <t>1,000 פחיות אלומיניום</t>
+  </si>
+  <si>
+    <t>500,000 פחיות אלומיניום</t>
+  </si>
+  <si>
+    <t>הגז מתאן שבפלוצים</t>
+  </si>
+  <si>
+    <t>פלוץ של פרה פוגעת בסביבה יותר מכל חיה אחרת בגלל:</t>
+  </si>
+  <si>
+    <t>הריח</t>
+  </si>
+  <si>
+    <t>שפרות מפליצות הרבה</t>
+  </si>
+  <si>
+    <t>הפחמן הדו חמצני</t>
+  </si>
+  <si>
+    <t>פארקים וסביבות ירוקות אחרות יכולים:</t>
+  </si>
+  <si>
+    <t>להפחית חרדות ומתח</t>
+  </si>
+  <si>
+    <t>להפחית תסמינים של הפרעות קשב וריכוז</t>
+  </si>
+  <si>
+    <t>לקדם את בריאות הנפש הכללית</t>
+  </si>
+  <si>
+    <t>כל התשובות נכונות</t>
+  </si>
+  <si>
+    <t>מהו אחוז המים בעולם בניתן לשתות?</t>
+  </si>
+  <si>
+    <t>משוער כי 50,000 מיני בעלי חיים נכחדים מידי שנה ב:</t>
+  </si>
+  <si>
+    <t>אוקיינוס</t>
+  </si>
+  <si>
+    <t>מדבר</t>
+  </si>
+  <si>
+    <t>יערות הטרופיים</t>
+  </si>
+  <si>
+    <t>ערים גדולות</t>
+  </si>
+  <si>
+    <t>מדוע ניתן למחזר נייר רק עד 6 פעמים?</t>
+  </si>
+  <si>
+    <t>אסור למחזר יותר מ6 פעמים לפי החוק</t>
+  </si>
+  <si>
+    <t>כי אנשים לא רוצים להשתמש בנייר שממוחזר יותר מידי פעמים</t>
+  </si>
+  <si>
+    <t>לאחר מיזחור נייר 6 פעמים- הסיבים חלשים מכדי להחזיק אותו</t>
+  </si>
+  <si>
+    <t>יש מספיק נייר בעולם. אין צורך למחזר יותר מ6 פעמים</t>
+  </si>
+  <si>
+    <t>ישנן תחזיות האומרות שב2040, בקוטב הצפוני, כבר לא יהיה:</t>
+  </si>
+  <si>
+    <t>קרח</t>
+  </si>
+  <si>
+    <t>מים</t>
+  </si>
+  <si>
+    <t>חיות</t>
+  </si>
+  <si>
+    <t>חמצן</t>
+  </si>
+  <si>
+    <t>מה קורה למכשירים האלקטרוניים שאנחנו זורקים?</t>
+  </si>
+  <si>
+    <t>כלום</t>
+  </si>
+  <si>
+    <t>הם מתכלים ועוזרים לצמחים בסביבה לצמוח</t>
+  </si>
+  <si>
+    <t>מתכות רעילות מהפסולת נספגות באדמה, באטמוספירה ובמים.</t>
+  </si>
+  <si>
+    <t>המכשירים האלקטרוניים אינם מתכלים או נהרסים עם הזמן. אפשר תמיד לחזור ולמחזר אותם</t>
+  </si>
+  <si>
+    <t>האבק ממדבר סהרה עובר מעל האוקיאנוס האטלנטי:</t>
+  </si>
+  <si>
+    <t>עד ליער האמזונס בצד השני של העולם</t>
+  </si>
+  <si>
+    <t>מסביב לעולם ובחזרה למדבר</t>
+  </si>
+  <si>
+    <t>ומתפזר לאט לאט לתוך האוקיינוס</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עולה למעלה ונספג באטמוספירה </t>
+  </si>
+  <si>
+    <t>באוקיינוס התגלתה סוג אבן חדשה שנוצרה מ:</t>
+  </si>
+  <si>
+    <t>פנינים</t>
+  </si>
+  <si>
+    <t>חול</t>
+  </si>
+  <si>
+    <t>שאריות פלסטיק</t>
+  </si>
+  <si>
+    <t>אלומיניום</t>
+  </si>
+  <si>
+    <t>האם חקלאות אורגנית טובה יותר מחקלאות קונבנציונלית?</t>
+  </si>
+  <si>
+    <t>כן</t>
+  </si>
+  <si>
+    <t>חלקאות אורגנית וחקלאות קונבנציונלית זה אותו הדבר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא, חקלאות אורגנית אינה תמיד טובה יות רלסביבה מחקלאות קונבנציונאלית </t>
+  </si>
+  <si>
+    <t>לא ניתן לדעת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60% מים ו10% קרח </t>
+  </si>
+  <si>
+    <t>50% חול ו20% מים</t>
+  </si>
+  <si>
+    <t>15% עצים ו10% קרח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא ניתן לדעת </t>
+  </si>
+  <si>
+    <t>פני כדור הארץ מורכב מכ:</t>
+  </si>
+  <si>
+    <t>בכל יום נכרתים 27,000 עצים לייצור:</t>
+  </si>
+  <si>
+    <t>צלחות נייר</t>
+  </si>
+  <si>
+    <t>נייר טואלט</t>
+  </si>
+  <si>
+    <t>בולי עץ למדורות</t>
+  </si>
+  <si>
+    <t>רהיטים מעץ</t>
+  </si>
+  <si>
+    <t>על פי הערכות מדענים - יש יותר עצים על פני האדמה מאשר:</t>
+  </si>
+  <si>
+    <t>חרקים</t>
+  </si>
+  <si>
+    <t>גרגירי חול</t>
+  </si>
+  <si>
+    <t>כוכבים בחלל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חיידקים בעולם </t>
+  </si>
+  <si>
+    <t>התחממות כדור הארץ עלולה לגרום ל:</t>
+  </si>
+  <si>
+    <t>שונויים בטמפרטורה</t>
+  </si>
+  <si>
+    <t>רעידות אדמה</t>
+  </si>
+  <si>
+    <t>צונאמי</t>
+  </si>
+  <si>
+    <t>טורנדו</t>
+  </si>
+  <si>
+    <t>האמנים הכי מושמעים בספוטיפיי בשנת 2019 היו פוסט מלון (עם 6.5 מיליארד צפיות), אחריו בילי אייליש ואריאנה גרנדה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בשנת 2020 בילי אייליש זכתה בפרס "גרמי" לאלבום הטוב ביותר, בהיותה בת 18. בילי היא הזוכה הצעירה בעולם בקטגוריה זו. </t>
+  </si>
+  <si>
+    <t>85% מכלל מכירות המוסיקה ביפן הן ברכישות תקליטורים, למרות שמחיר תקליטור ביפן הוא כ-25 דולר.</t>
+  </si>
+  <si>
+    <t>ב2015 אסטרונאוט בשם קריס הדפילד שיחרר את האלבום הראשון שלו. האלבום כולו הוקלט בחלל.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחקר מ2013 מראה כי מוזיקה עוזרת לאנשים עם פגיעות שכליות לזכור זכרונות אישיים. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תוחלת החיים של אמן נמוכה ב-25 שנה מהממוצע. הסיבה לכך היא שמוסיקאים רבים סובלים מדיכאון ומנהלים חיים קשים. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">צמחים יכולים לצמוח בקצב מהיר יותר כשהם שומעים מוזיקה. מחקרים מראים שצמחים מעריכים בעיקר שירים של בטהובן ושופין. </t>
+  </si>
+  <si>
+    <t>הלהקה "Maroon 5" הוקמה לראשונה בשנת 1994, כ"פרחי קארה ". הם שינו את שמם בשנת 2001.</t>
+  </si>
+  <si>
+    <t>טרמיטים אוהבים מוזיקת מטאל. על פי חוקרים אוסטרליים בהאזנה למוזיקת מטאל - טרמיטים יאכלו עץ בקצב מהיר פי 2.</t>
+  </si>
+  <si>
+    <t>בשנת 2008 גילו חוקרים כי מוסיקה רועשת גורמת לאנשים לשתות מהר יותר.</t>
+  </si>
+  <si>
+    <t>למוצרט מותג שוקולד שנקרא על שמו בשם מוצרטקוגל או כדור מוצרט. השוקולד פופולרי מאוד באוסטריה.</t>
+  </si>
+  <si>
+    <t>מחקרים מראים כי בהאזנה למוזיקה, תינוקות נרגעים הרבה יותר מהאזנה לקול אדם. תינוקות מעדיפים בעיקר מוזיקה שקטה, כגון: שירי ילדים, מוזיקה קלאסית וג'אז.</t>
+  </si>
+  <si>
+    <t>מי היו האמנים הכי מושמעים בספוטיפיי בשנת 2019?</t>
+  </si>
+  <si>
+    <t>פוסט מאלון</t>
+  </si>
+  <si>
+    <t>בילי אייליש</t>
+  </si>
+  <si>
+    <t>אריאנה גרנדה</t>
+  </si>
+  <si>
+    <t>בילי אייליש זכתה בפרס "גרמי" לאלבום הטוב ביותר. בילי היא הזוכה:</t>
+  </si>
+  <si>
+    <t>האישה היחידה בעולם שזכתה בקטגוריה זו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הזוכה המבוגרת ביותר בקטגוריה זו </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> הזוכה הצעירה בעולם בקטגוריה זו</t>
+  </si>
+  <si>
+    <t>85% מכלל מכירות המוסיקה ביפן הן:</t>
+  </si>
+  <si>
+    <t>מרכישות תקליטורים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מרכישות רדיו </t>
+  </si>
+  <si>
+    <t>מרכישת אוזניות</t>
+  </si>
+  <si>
+    <t>מרכישת אייפדים</t>
+  </si>
+  <si>
+    <t>מה מיוחד באלבום המוזיקה של האסטרונאוט כריס הדפילד?</t>
+  </si>
+  <si>
+    <t>האלבום זכה בפרס "האלבום המוביל" בשנת 2015</t>
+  </si>
+  <si>
+    <t>האלבום הוביל במספר המכירות בשנת 2015</t>
+  </si>
+  <si>
+    <t>האלבום מחזיק בשיא "מרבית השירים באלבום אחד"</t>
+  </si>
+  <si>
+    <t>האלבום כולו הוקלט בחלל</t>
+  </si>
+  <si>
+    <t>מחקר מ2013 מראה כי מוזיקה עוזרת לאנשים עם פגיעות שכליות:</t>
+  </si>
+  <si>
+    <t>להבריא בקצב מהיר יותר</t>
+  </si>
+  <si>
+    <t>להזכור זכרונות אישיים</t>
+  </si>
+  <si>
+    <t>לדבר בקצב מהיר יותר</t>
+  </si>
+  <si>
+    <t>להתמודד עם הכאב</t>
+  </si>
+  <si>
+    <t>Most musicians write sad songs</t>
+  </si>
+  <si>
+    <t>מוסיקאים רבים סובלים מדיכאון ומנהלים חיים קשים. כתוצאה מכך:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מוסיקאים כותבים בעיקר שירים עצובים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ישנו סוג ספציפי של פסיכולוג שמטפל במוסיקאים </t>
+  </si>
+  <si>
+    <t>תוחלת החיים של אמן נמוכה ב-25 שנה מהממוצע</t>
+  </si>
+  <si>
+    <t>אדם אינו נחשב מוסיקאי אם הוא לא סובל מדיכאון</t>
+  </si>
+  <si>
+    <t>בעת שמיעת מוזיקה- צמחים יכולים:</t>
+  </si>
+  <si>
+    <t>לשנות את צבעם</t>
+  </si>
+  <si>
+    <t>לצמוח בקצב מהיר יותר</t>
+  </si>
+  <si>
+    <t>לצמוח בקצה איטי יותר</t>
+  </si>
+  <si>
+    <t>לזוז עם קצב המוזיקה</t>
+  </si>
+  <si>
+    <t>כשקמה הקבוצה מרון 5, מה הייתה שמה המקורי?</t>
+  </si>
+  <si>
+    <t>פרחי קארא</t>
+  </si>
+  <si>
+    <t>הורדים של אנג`לה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אש ומים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">המלאכים </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> על פי חוקרים אוסטרליים בהאזנה למוזיקת מטאל - טרמיטים:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ירוצו בסיבובים </t>
+  </si>
+  <si>
+    <t>יאכלו עץ בקצב מהיר פי 2</t>
+  </si>
+  <si>
+    <t>יתחבאו במקום שקט</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יתחילו לנוע ביחד, כמעין ריקוד </t>
+  </si>
+  <si>
+    <t>בשנת 2008 גילו חוקרים כי מוסיקה רועשת גורמת לאנשים:</t>
+  </si>
+  <si>
+    <t>לבכות</t>
+  </si>
+  <si>
+    <t>לפחד</t>
+  </si>
+  <si>
+    <t>לשתות מהר יותר</t>
+  </si>
+  <si>
+    <t>לאכול מהר יותר</t>
+  </si>
+  <si>
+    <t>מה זה כדור מוצרט?</t>
+  </si>
+  <si>
+    <t>פסל של מוצרט שנראה כמו כדור</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אירוע שבו מנגנים אך ורק שירים של מוצרט  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מותג שוקולד שנקרא על שמו של מוצרט </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כדור עם קישוט של תווי מוזיקה </t>
+  </si>
+  <si>
+    <t>מחקרים מראים כי בהאזנה למוזיקה, תינוקות:</t>
+  </si>
+  <si>
+    <t>נרגעים הרבה יותר מהאזנה לקול אדם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מתעצבנים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">יהיו עליזים ושמחיפם יותר מבדרך כלל </t>
+  </si>
+  <si>
+    <t xml:space="preserve">נצנוץ הכוכבים נגרם ע"י הבדלים בטמפרטורת האטמוספירה, המשפיעים על שבירת האור. </t>
+  </si>
+  <si>
+    <t>האסטרונאוט אלן שפרד חבט שני כדורי גולף על הירח במהלך משימת אפולו 14 בשנת 1971.</t>
+  </si>
+  <si>
+    <t>אוסטרליה רחבה יותר מהירח! קוטר הירח הוא 3400 ק"מ, ואילו הקוטר של אוסטרליה ממזרח למערב הוא כמעט 4000 ק"מ.</t>
+  </si>
+  <si>
+    <t>כדור הארץ, הוא כוכב הלכת היחיד (במערכת השמש שלנו) שלא נקרא על שם אל.</t>
+  </si>
+  <si>
+    <t>האסטרואיד הגדול ביותר במערכת השמש שלנו הוא פיסת סלע בחלל בשם קרס. שטח הפנים של קרס שווה בערך לשטח היבשה של הודו או ארגנטינה.</t>
+  </si>
+  <si>
+    <t>היצור החי הראשון בחלל היתה כלבה בשם לייקה. היא נלקחה מהרחוב ע"י הרוסים ונשלחה לחלל בחללית ספוטניק 2.</t>
+  </si>
+  <si>
+    <t>מסת השמש מהווה 99.86% מכלל מסת מערכת השמש שלנו. מסתה פי 330,000 מזו של כדור הארץ.</t>
+  </si>
+  <si>
+    <t>ישנה תיאוריה, שלפני שנים רבות גוף ענק פגע בכדוה"א וכתוצאה מהפגיעה שוחרר חלק מכדור הארץ וכך נוצר הירח.</t>
+  </si>
+  <si>
+    <t>במשך שנים, האמינו כי כדור הארץ הוא כוכב הלכת היחיד במערכת השמש שלנו עם מים נוזליים. לאחרונה נאס"א חשפה שמידי פעם יש מים זורמים גם במאדים!</t>
+  </si>
+  <si>
+    <t>הודות להדפסה תלת ממדית, נאס"א יכולה בעצם "לשלוח" כלים לאסטרונאוטים. הכלים הדרושים מתוכננים ונשלחים למדפסות התלת מימד להדפסה בחלל.</t>
+  </si>
+  <si>
+    <t>נוגה הוא כוכב הלכת היחיד במערכת השמש שלנו שמסתובב עם כיוון השעון.</t>
+  </si>
+  <si>
+    <t>ההבדל בין אסטרואיד לשביט הוא ההרכב החומרי. אסטרואידים עשויים בדרך כלל מאבן ומתכת. לעומת זאת כוכב שביט יכול להכיל גם קרח, חומר חלקיקי וחומר אורגני.</t>
+  </si>
+  <si>
+    <t>נפח הירח (של כדור הארץ) זהה לנפח האוקיינוס השקט.</t>
+  </si>
+  <si>
+    <t>לשבתאי יש 62 ירחים מאושרים, מתוכם 9 ממתינים לקבלת שם רשמי. הירח הגדול ביותר של שבתאי, טיטאן, גדול יותר מכוכב חמה ומפלוטו.</t>
+  </si>
+  <si>
+    <t>נצנוץ הכוכבים נגרם על ידי:</t>
+  </si>
+  <si>
+    <t>הבדלים בטמפרטורת האטמוספירה</t>
+  </si>
+  <si>
+    <t>השמש</t>
+  </si>
+  <si>
+    <t xml:space="preserve">המרחק בינינו לבין הכוכבים </t>
+  </si>
+  <si>
+    <t>העיניים שלנו עובדים עלינו</t>
+  </si>
+  <si>
+    <t>במהלך משימת אפולו 14 בשנת 1971, מה עשה האסטראונאוט אלן שפרד?</t>
+  </si>
+  <si>
+    <t>חבט שני כדורי גולף על הירח</t>
+  </si>
+  <si>
+    <t>השתין על הירח</t>
+  </si>
+  <si>
+    <t>שר שיר על הירח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כתב את שמו בחול על הירח </t>
+  </si>
+  <si>
+    <t>בחרו את התשובה הנכונה:</t>
+  </si>
+  <si>
+    <t>אוסטרליה רחבה יותר מהירח</t>
+  </si>
+  <si>
+    <t>הירח רחב יותר מאוסטרליה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מבין אוסטרליה לירח- אין דרך מדעית לבדוק מה רחב יותר </t>
+  </si>
+  <si>
+    <t>איזה כוכב הוא כוכב הלכת היחיד (במערכת השמש שלנו) שלא נקרא על שם אל?</t>
+  </si>
+  <si>
+    <t>ונוס</t>
+  </si>
+  <si>
+    <t>מאדים</t>
+  </si>
+  <si>
+    <t>כדור הארץ</t>
+  </si>
+  <si>
+    <t>אורנוס</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לירח אין אטמוספירה, לכן אין אוויר שישחק את האדמה ואין מים שישטפו את הקרקע. מכאן שעקבות אסטרונאוטים יישארו על ירח לאלפי שנים. </t>
+  </si>
+  <si>
+    <t>עקבות אסטרונאוטים יישארו על ירח לאלפי שנים מכיוון ש:</t>
+  </si>
+  <si>
+    <t>בכל פעם שהעקבות מתחילות לדהות- האסטרונאוטים חוזרים שוב לירח ליוצרים עוד עקבות</t>
+  </si>
+  <si>
+    <t>אין חיות על הירח שיכסו את עקבות האסטרונאוטים</t>
+  </si>
+  <si>
+    <t>החול על הירח מיוחד- כשדורכים על החול הוא מתקשה וטביעת רגל מוטבעת שם לנצח</t>
+  </si>
+  <si>
+    <t>לירח אין אטמוספירה, לכן אין אוויר שישחק את האדמה ואין מים שישטפו את הקרקע</t>
+  </si>
+  <si>
+    <t>האסטרואיד הגדול ביותר במערכת השמש שלנו הוא פיסת סלע בחלל בשם:</t>
+  </si>
+  <si>
+    <t>פלוטו</t>
+  </si>
+  <si>
+    <t>קרס</t>
+  </si>
+  <si>
+    <t>הירח</t>
+  </si>
+  <si>
+    <t>אין לאסטרואיד שם</t>
+  </si>
+  <si>
+    <t>מי היה היצור החי הראשון בחלל?</t>
+  </si>
+  <si>
+    <t>כלב בשם לייקה</t>
+  </si>
+  <si>
+    <t>חזיר בשם לאה</t>
+  </si>
+  <si>
+    <t>קוף בשם לולו</t>
+  </si>
+  <si>
+    <t>חתולה בשם לונה</t>
+  </si>
+  <si>
+    <t>מה מהווה 99.86% מכלל מסת מערכת השמש שלנו?</t>
+  </si>
+  <si>
+    <t>ישנה תיאוריה, שלפני שנים רבות גוף ענק פגע בכדוה"א וכתוצאה מהפגיעה:</t>
+  </si>
+  <si>
+    <t>כדור הארץ זז למיקום שונה במערכת השמש</t>
+  </si>
+  <si>
+    <t>התרחשה פיצוץ אדיר בכדור הארץ</t>
+  </si>
+  <si>
+    <t>שוחרר חלק מכדור הארץ וכך נוצר הירח</t>
+  </si>
+  <si>
+    <t>במשך שנים, האמינו כי כדור הארץ הוא כוכב הלכת היחיד במערכת השמש שלנו עם מים נוזליים. לאחרונה נאס"א חשפה שמידי פעם יש מים זורמים גם:</t>
+  </si>
+  <si>
+    <t>בשמש</t>
+  </si>
+  <si>
+    <t>במאדים</t>
+  </si>
+  <si>
+    <t>על הירח</t>
+  </si>
+  <si>
+    <t>באורנוס</t>
+  </si>
+  <si>
+    <t>איך נאסא שולחת כלים לאסטרונאוטים בחלל?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> הכלים הדרושים מתוכננים ונשלחים למדפסות תלת מימד להדפסה בחלל</t>
+  </si>
+  <si>
+    <t>בתחנת החלל הבינלאומית יש את כל הכלים הנדרשיםץ האסטרונאוטים יכולים לעבור בתחנה בעודם בחלל ולאסוף את הכלים הנדרשים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נאסא שולחים את הכלים הנדרשים לאסטרונאוטים בחלליות קטנות </t>
+  </si>
+  <si>
+    <t>אים דרך לשלוח כלים לאסטרונאוטים בחלל</t>
+  </si>
+  <si>
+    <t>איזה כוכב לכת הוא כוכב הלכת היחיד במערכת השמש שלנו שמסתובב עם כיוון השעון?</t>
+  </si>
+  <si>
+    <t>צדק</t>
+  </si>
+  <si>
+    <t>מה ההבדל בין אסטרואיד לשביט?</t>
+  </si>
+  <si>
+    <t>אין הבדל</t>
+  </si>
+  <si>
+    <t>הצבע</t>
+  </si>
+  <si>
+    <t>הגודל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ההרכב החומרי </t>
+  </si>
+  <si>
+    <t>נפח הירח (של כדור הארץ) זהה לנפח:</t>
+  </si>
+  <si>
+    <t>האוקיינוס השקט</t>
+  </si>
+  <si>
+    <t xml:space="preserve">השמש </t>
+  </si>
+  <si>
+    <t>כמה ירחים יש לשבתאי?</t>
+  </si>
+  <si>
+    <t>אין לשבתאי ירחים</t>
+  </si>
+  <si>
+    <t>אנחנו לא יודעים</t>
+  </si>
+  <si>
+    <t>פלטפורמות המדיה החברתית הפעילות ביותר בשנת 2019 היו פייסבוק, יוטיוב וווי צ'אט.</t>
+  </si>
+  <si>
+    <t>ווי צאט היא פלטפורמת מדיה חברתית סינית, שפותחה מכיוון שפייסבוק, יוטיוב ופלטפורמות מדיה חברתית אחרות אסורות בסין.</t>
+  </si>
+  <si>
+    <t>ב-14 (ארבעה עשר) בפברואר 2019 - יוטיוב חגגה 15 (חמש עשרה) שנים להיווסדה. עובדה שרבים לא יודעים היא כי יוטיוב פותחה לראשונה כאתר היכרויות.</t>
+  </si>
+  <si>
+    <t>בשנת 2020 "טי סיריס" תהיה סדרת היוטיוב הפופולרית ביותר בעולם. השם אולי לא מוכר לכם, זאת מכיוון שמדובר בלייבל מוזיקה מהודו.</t>
+  </si>
+  <si>
+    <t>95% מבני הנוער מחוברים לאינטרנט, ו-85% מהם משתמשים ברשתות חברתיות.</t>
+  </si>
+  <si>
+    <t>בכל יום מועלות ליוטיוב סך של 80,000 שעות צילומי וידיאו. רובן הן סרטונים של חיות מחמד.</t>
+  </si>
+  <si>
+    <t>למדיה החברתית יש גם פן שלילי. 1 מתוך 10 צעירים הוטרדו באינטרנט בשנה שעברה. הם היו קורבנות להשמצה, לאיומים, לסחיטות ועוד.</t>
+  </si>
+  <si>
+    <t>הצורה הנפוצה ביותר של בריונות ברשת היא השמצה. השמצה כוללת טקסטים פוגעניים או הפצת תמונות וסרטונים.</t>
+  </si>
+  <si>
+    <t>בטוויטר יש 330 מיליון משתמשים פעילים מדי חודש. מתוך משתמשים אלה 44% פתחו חשבון ועזבו עוד לפני שליחת ציוץ.</t>
+  </si>
+  <si>
+    <t>פייסבוק, וואטסאפ ואינסטגרם מנוהלות על ידי אותה חברה. בפייסבוק מסנג'ר ובוואטסאפ נשלחים כ -60 מיליארד הודעות ביום.</t>
+  </si>
+  <si>
+    <t>יותר ממחצית הצפיות ב- YouTube מגיעות ממכשירים ניידים. משך הצפייה הממוצע בניידים נמשך יותר מ -40 דקות.</t>
+  </si>
+  <si>
+    <t>למעלה מ -40 מיליארד תמונות שותפו באינסטגרם מאז שחרורה בשנת 2010. מעל 95 מיליון תמונות מועלות מדי יום.</t>
+  </si>
+  <si>
+    <t>בממוצע, לכל אדם 7.6 חשבונות מדיה חברתית.</t>
+  </si>
+  <si>
+    <t>איזה פלטפורמות היו פלטפורמות המדיה החברתית הפעילות ביותר בשנת 2019?</t>
+  </si>
+  <si>
+    <t>פייסבוק, יוטיוב ווי צ`אט</t>
+  </si>
+  <si>
+    <t>אינסטגרם, טוויטר וטיקטוק</t>
+  </si>
+  <si>
+    <t>פייסבוק וואטסאפ</t>
+  </si>
+  <si>
+    <t>ווי צאט היא פלטפורמת מדיה חברתית סינית, שפותחה מכיוון ש:</t>
+  </si>
+  <si>
+    <t>סין רצתה לפתח פלטפורמ מדיה חברתית משלה</t>
+  </si>
+  <si>
+    <t>פייסבוק, יוטיוב ופלטפורמות מדיה חברתית אחרות אסורות בסין</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אין פלטפורמת מדיה חברתית שדומה לווי צאט. היא ייחודית וחדשה </t>
+  </si>
+  <si>
+    <t>סין השתתפה בתחרות "פלטפורמות מדיה חברתית חדשה"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> יוטיוב פותחה לראשונה כ:</t>
+  </si>
+  <si>
+    <t>תכנית רדיו שבועית</t>
+  </si>
+  <si>
+    <t>אתר להורדת מוזיקה למחשב</t>
+  </si>
+  <si>
+    <t>אתר היכרויות</t>
+  </si>
+  <si>
+    <t>אתר למעצבים צעירים</t>
+  </si>
+  <si>
+    <t>מהו טי סיריס?</t>
+  </si>
+  <si>
+    <t>סדרת משחקים</t>
+  </si>
+  <si>
+    <t>סדרת טלוויזיה</t>
+  </si>
+  <si>
+    <t>פלטפורמת מדיה חברתית</t>
+  </si>
+  <si>
+    <t>לייבל מוזיקה מהודו</t>
+  </si>
+  <si>
+    <t>איזו טענה נכונה לגבי בני נוער?</t>
+  </si>
+  <si>
+    <t>100% מבני הנוער מחוברים לאינטרנט ולרוב אין חשבונות מדיה חברתית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% מחוברים לאינטרנט ול- 85% יש חשבונות מדיה חברתית </t>
+  </si>
+  <si>
+    <t>10% מבני הנוער מחוברים לאינטרנט ול-100% יש חשבונות מדיה חברתית</t>
+  </si>
+  <si>
+    <t>5% מבני הנוער מחוברים לאינטרנט וגם משתמשים בפלטפורמות מדיה חברתית</t>
+  </si>
+  <si>
+    <t>בכל יום מועלות ליוטיוב סך של 80,000 שעות צילומי וידיאו. רובן הן סרטונים של:</t>
+  </si>
+  <si>
+    <t>שידורי רדיו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תחזיות מזג אוויר </t>
+  </si>
+  <si>
+    <t xml:space="preserve">סרטונים של אוכל </t>
+  </si>
+  <si>
+    <t xml:space="preserve">סרטונים של חיות מחמד </t>
+  </si>
+  <si>
+    <t>What is a mentioned negetive aspect of the internet?</t>
+  </si>
+  <si>
+    <t>איזה פן שלילי של האינטרנט צויין?</t>
+  </si>
+  <si>
+    <t>התמכרות. אנשים מתמכרים לאינטרנט</t>
+  </si>
+  <si>
+    <t>סרטונים לא הולמים באינטרנט</t>
+  </si>
+  <si>
+    <t>בריונות ברשת.  1 מתוך 10 צעירים הוטרדו באינטרנט בשנה שעברה</t>
+  </si>
+  <si>
+    <t>אין לאינטרנט פן שלילי</t>
+  </si>
+  <si>
+    <t>הצורה הנפוצה ביותר של בריונות ברשת היא השמצה. מהי השמצה?</t>
+  </si>
+  <si>
+    <t>טקסטים פוגעניים או הפצת תמונות וסרטונים</t>
+  </si>
+  <si>
+    <t>אנשים שמותחים את חברים שלהם באינטרנט</t>
+  </si>
+  <si>
+    <t>השמצה מתייחסת אך ורק לפייסבוק ושליחת הודעות פועניות בפלטפורמה זו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slander is constant unwanted online adds </t>
+  </si>
+  <si>
+    <t>פרסומות שצצים בניגוד לרצון המשתמש</t>
+  </si>
+  <si>
+    <t>בטוויטר יש 330 מיליון משתמשים פעילים מדי חודש. מתוך משתמשים אלה 44% פתחו חשבון ו:</t>
+  </si>
+  <si>
+    <t>השתמשו בחשון לבריונות רשת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שולחים הודעות כל יום </t>
+  </si>
+  <si>
+    <t xml:space="preserve">משתמשים בחשבון כדי לקדם את העסקים שלהם </t>
+  </si>
+  <si>
+    <t>עזבו עוד לפני שליחת ציוץ</t>
+  </si>
+  <si>
+    <t>מה מיוחד בפייסבוק, אינסטגרם וואטסאפ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כל שלושת הפלטפורמות פותחו בסין </t>
+  </si>
+  <si>
+    <t>לכל שלושת הפלטפורמות יותר מ5 מיליארד משתמשים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כל שלושת הפלטפורמות מנוהלות על ידי אותה חברה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מדובר בשלושת הפלטפורמות הישנות ביותר בעולם </t>
+  </si>
+  <si>
+    <t>יותר ממחצית הצפיות ב- YouTube מגיעות מ:</t>
+  </si>
+  <si>
+    <t>מחשבים נייחים</t>
+  </si>
+  <si>
+    <t>מכשירים ניידים</t>
+  </si>
+  <si>
+    <t>מחשבים בסיפריות</t>
+  </si>
+  <si>
+    <t>כמה תמונות שותפו באינסטגרם מאז שחרורה בשנת 2010?</t>
+  </si>
+  <si>
+    <t>יותר מ40 מיליארד</t>
+  </si>
+  <si>
+    <t>בערך 10,000</t>
+  </si>
+  <si>
+    <t>כמה חשבונות מדיה חברתית יש לכל אדם בממוצע?</t>
+  </si>
+  <si>
+    <t>בשנות ה1830 קטשופ נמכר כתרופה. טענו כי קטשופ מרפא כל דבר, החל מקרחת וכלה בפריחות ואינפקציות.</t>
+  </si>
+  <si>
+    <t>גמבה אדומה, צהובה וירוקה הן אותו ירק בשלבים שונים של התפתחות.</t>
+  </si>
+  <si>
+    <t>שעוות קרנובה, מרכיב מרכזי בשעוות רכב המייצרת ברק מבריק, נמצאת גם בממתקי גומי כדי לגרום להם לזרוח.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ישנם כ-450 זני גבינה בעולם. 240 מהם מצרפת. </t>
+  </si>
+  <si>
+    <t>יותר אנשים אלרגיים לחלב פרה מכל מזון אחר. במיוחד באסיה, אנשים סובלים מכך מכיוון שחסר להם אינזים מסוים.</t>
+  </si>
+  <si>
+    <t>הסיבה שיש חורים בקרקרים היא כדי למנוע היווצרות בועות שיהרסו את הקרקר בתהליך האפייה.</t>
+  </si>
+  <si>
+    <t>לסלמון מגידול משק יש תזונה שונה מזו של סלמון בר ולכן הם לבנים במקום ורודים. הסלמון נצבע ורוד למשוך את הקונים.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מקור העגבניות הינו מקסיקו ולא איטליה (טעות נפוצה). הבלבול כנראה נגרם משימוש בעגבניות במנות איטלקיות רבות כמו פסטה ופיצה. </t>
+  </si>
+  <si>
+    <t>תאריך התפוגה על בקבוק מים הוא בעצם עבור הבקבוק ולא עבור המים. תוקפם של מים לא יכול לפוג אבל תוקפו של בקבוק הפלסטיק בו נמצאים המים - יכול.</t>
+  </si>
+  <si>
+    <t>שוקלד יכול להרוג כלבים. הוא משפיע ישירות על הלב ומערכת העצבים שלהם.</t>
+  </si>
+  <si>
+    <t>40% מהרווח של מקדונלדס מגיע ממכירת "האפי מילס" .</t>
+  </si>
+  <si>
+    <t>אם רוצים לבדוק טריות של ביצה - אפשר לשים אותה בכוס מים ולראות אם תצוף. ביצה טרייה תשקע מהר לתחתית הכוס. אם הביצה תצוף - סימן שהיא כבר לא טרייה.</t>
+  </si>
+  <si>
+    <t>בארה"ב, סכום הפיצות הנאכלות מידי יום שווה לפיצה בגודל 4685 מ"ר.  כלומר 350 משולשי פיצה כל שניה.</t>
+  </si>
+  <si>
+    <t>בשנות ה1830 קטשופ נמכר כ:</t>
+  </si>
+  <si>
+    <t>משקה</t>
+  </si>
+  <si>
+    <t>תרופה</t>
+  </si>
+  <si>
+    <t>משחת שיניים</t>
+  </si>
+  <si>
+    <t>צבע</t>
+  </si>
+  <si>
+    <t>גמבה אדומה, צהובה וירוקה הן:</t>
+  </si>
+  <si>
+    <t>כולם צבעים שונים כי הן ממדינות שונות</t>
+  </si>
+  <si>
+    <t>אותו ירק בשלבים שונים של התפתחות</t>
+  </si>
+  <si>
+    <t>אותו הירק אך ברמת חריפות שונה. ככל שהגמבה יותר אדומה כך היא יותר חריפה</t>
+  </si>
+  <si>
+    <t>בעקרון אותו הירק. חקלאים צובעים אותן בצבעים שונים כדי שאנשים יקנו יותר גמבות</t>
+  </si>
+  <si>
+    <t>למה יש שעוות קרנובה, מרכיב מרכזי בשעוות רכב המייצרת ברק מבריק, בממתקי גומי?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כדי להעניק לממתקים טעם שעוותי </t>
+  </si>
+  <si>
+    <t>השעווה מעניקה לגומי את הצבע הייחודי שלו</t>
+  </si>
+  <si>
+    <t>השעווה שומרת על טריות הממתקים</t>
+  </si>
+  <si>
+    <t>כדי לגרום להם לזרוח</t>
+  </si>
+  <si>
+    <t>ישנם כ-450 זני גבינה בעולם. 240 מהם מ:</t>
+  </si>
+  <si>
+    <t>איטליה</t>
+  </si>
+  <si>
+    <t>צרפת</t>
+  </si>
+  <si>
+    <t>יוון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שוודיה </t>
+  </si>
+  <si>
+    <t>מדוע באסיה אנשים אלרגיים במיוחד לחלב פרה?</t>
+  </si>
+  <si>
+    <t>כי חסר להם אינזים מסוים</t>
+  </si>
+  <si>
+    <t>כי אין חלב פרות באסיה</t>
+  </si>
+  <si>
+    <t>כי באסיה זנ נגד החוק לשתות חלב פרה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי הפרות באסיה אוכלות דשא שגורם לייצור חומר רעיל בחלב שלהם </t>
+  </si>
+  <si>
+    <t>מדוע יש חורים בקרקרים?</t>
+  </si>
+  <si>
+    <t>לקישוט</t>
+  </si>
+  <si>
+    <t>כדי למנוע היווצרות בועות שיהרסו את הקרקר בתהליך האפייה</t>
+  </si>
+  <si>
+    <t>זו הדרך המסורתית להכין קרקרץ המסורת החלה עוד בשנות ה1800</t>
+  </si>
+  <si>
+    <t>החורים עוזרים לשמור על טריות הקרקר</t>
+  </si>
+  <si>
+    <t>סלמון מגידול משק הוא לבן ולא ורוד. מדוע המוכרים צובעים את הסלמון ורוד?</t>
+  </si>
+  <si>
+    <t>הצבע עוזר לבליט את הטעם של הסלמון</t>
+  </si>
+  <si>
+    <t>הצבע עוזר לשמירת טריות הסלמון</t>
+  </si>
+  <si>
+    <t>כדי למשוך את הקונים</t>
+  </si>
+  <si>
+    <t>מהו מקור העגניות?</t>
+  </si>
+  <si>
+    <t>מקסיקו</t>
+  </si>
+  <si>
+    <t>יפן</t>
+  </si>
+  <si>
+    <t>מים לא יכולים לפוג. מדוע אם כך יש תאריך תפוגה על בקבוקי מים?</t>
+  </si>
+  <si>
+    <t>תאריך התפוגה על בקבוק מים הוא בעצם עבור הבקבוק ולא עבור המים</t>
+  </si>
+  <si>
+    <t>תאריך התפוגה הוא לקישוט בלבדץ ניתן להתעלם ממנו</t>
+  </si>
+  <si>
+    <t>מים לא יכולים לפוג אך ורק אם הבקבוק סגור. כלומר תאריך התפוגה מתייחס למים לאחר פתיחת הבקבוק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אין תאריך תפוגה על בקבוקי מים </t>
+  </si>
+  <si>
+    <t>מדוע שוקולד מזיק לכלבים?</t>
+  </si>
+  <si>
+    <t>שוקלד יכול להרוג כלבים. הוא משפיע ישירות על הלב ומערכת העצבים שלהם</t>
+  </si>
+  <si>
+    <t>לכלבים יש סכרת. שוקולד מתוק להם מידי</t>
+  </si>
+  <si>
+    <t>כלבים לא יכולים לבלוע שוקולד כמו שצריך. השוקולד נתקע להם בגרון ומהווה סכנת חנק</t>
+  </si>
+  <si>
+    <t>שוקולד ממכר מאוד. כלבים יכולים להתמכר לשוקולד בקלות</t>
+  </si>
+  <si>
+    <t>40% מהרווח של מקדונלדס מגיע ממכירת:</t>
+  </si>
+  <si>
+    <t>צ`יפס</t>
+  </si>
+  <si>
+    <t>ציקן נאגטס (שניצלונים)</t>
+  </si>
+  <si>
+    <t>האפי מילס</t>
+  </si>
+  <si>
+    <t>המבורגרים</t>
+  </si>
+  <si>
+    <t>כששמים ביצה בכוס מים קרים:</t>
+  </si>
+  <si>
+    <t>אם הביצה טרייה- היא תשקע במהירות. אם הביצה אינה טרייה- היא תצוף</t>
+  </si>
+  <si>
+    <t>If the egg is fresh it will float, if the egg is not fresh- it will crack</t>
+  </si>
+  <si>
+    <t>אם הביצה טרייה- היא תצוף. אם הביצה אינה טרייה- היא תישבר</t>
+  </si>
+  <si>
+    <t>If the egg is fresh it will shrink, if the egg is not fresh- it will stay the same size</t>
+  </si>
+  <si>
+    <t>אם הביצה טרייה- היא תתכווץ. אם הביצה אינה טרייה- היא תגדל</t>
+  </si>
+  <si>
+    <t>בארצות הברית פיצה בגודל 4685 מטר ריבועי נאכלת:</t>
+  </si>
+  <si>
+    <t>מידי יום</t>
+  </si>
+  <si>
+    <t>מידי חודש</t>
+  </si>
+  <si>
+    <t>מידי שנה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כל 12 שנה </t>
+  </si>
+  <si>
+    <t>תינוקות נולדים ללא ברכיים. הן לא מופיעות עד שהילד בין שנתיים ל-6 שנים.</t>
+  </si>
+  <si>
+    <t>תאי מוח יכולים להתרבות עד 250,000 פעמים בדקה במהלך תחילת הריון.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">המוח הוא איבר מקומט מאוד! אם פורשים אותו, המוח יהיה בערך בגודל ציפית של כרית. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לזיעה אין באמת ריח רע. הריח הרע הוא כתוצאה מחיידקי העור שניזונים מהזיעה ומפרישים פסולת מסריחה. </t>
+  </si>
+  <si>
+    <t>בלוטות הרוק מייצרות שתיים עד שש כוסות רוק ביום. זה מספיק רוק כדי למלא בקבוק של 2 ליטר!</t>
+  </si>
+  <si>
+    <t>עד 750 מ"ל דם נשאב דרך המוח בכל דקה. זה בערך 15-20% מהדם שמגיע מהלב.</t>
+  </si>
+  <si>
+    <t>המח שלנו צורך כ-25 וואט בזמן שאנו ערים. זה מספיק מתח כדי להדליק נורה.</t>
+  </si>
+  <si>
+    <t>25% מעצמות בני האדם נמצאים ברגליו. הרגל נחשבת מורכבת כל כך מכיוון שהיא חייבת להיות מסוגלת לשאת את כל משקלו של האדם.</t>
+  </si>
+  <si>
+    <t>אדם נולד עם 300 עצמות, אך בגיל מבוגר יש לו רק 206.</t>
+  </si>
+  <si>
+    <t>אנשים משתמשים בכ-72 שרירים שונים כדי לדבר.</t>
+  </si>
+  <si>
+    <t>מחקר משנת 2003 מראה ירידה של 18 אחוז בגודל הסינפסות שלנו לאחר מספר שעות שינה. כלומר בזמן שאנחנו ישנים המוח שלנו מתכווץ.</t>
+  </si>
+  <si>
+    <t>כשאדם בן שש, המוח שלו ב-90 אחוז מהגודל שיהיה בגיל מבוגר.</t>
+  </si>
+  <si>
+    <t>בני אדם משתמשים רק ב -17 שרירים כדי לחייך לעומת 43 השרירים שנדרשים להזעיף פנים. כלומר קל יותר לחייך מאשר להזעיף פנים.</t>
+  </si>
+  <si>
+    <t>המח האנושי הוא כ-75% מים.</t>
+  </si>
+  <si>
+    <t>הלב דופק יותר מ100,000 פעמים ביום!</t>
+  </si>
+  <si>
+    <t>בדיוק כמו טביעת אצבע- טביעת לשון של כל אדם שונה.</t>
+  </si>
+  <si>
+    <t>תינוקות נולדים ללא:</t>
+  </si>
+  <si>
+    <t>כתפיים</t>
+  </si>
+  <si>
+    <t>שרירים</t>
+  </si>
+  <si>
+    <t>מרפקים</t>
+  </si>
+  <si>
+    <t>תאי מוח יכולים להתרבות עד 250,000 פעמים בדקה:</t>
+  </si>
+  <si>
+    <t>בזמן שאדם ישן</t>
+  </si>
+  <si>
+    <t>במהלך תחילת תקופת ההריון</t>
+  </si>
+  <si>
+    <t>בזמן שאדם אוכל</t>
+  </si>
+  <si>
+    <t>כשאדם עושה פעילות פיזית</t>
+  </si>
+  <si>
+    <t>המוח הוא איבר מקומט מאוד! אם פורשים אותו, המוח יהיה בערך בגודל:</t>
+  </si>
+  <si>
+    <t>מגרש כדורסל</t>
+  </si>
+  <si>
+    <t>מיטה</t>
+  </si>
+  <si>
+    <t>ציפית של כרית</t>
+  </si>
+  <si>
+    <t>לוח שחמט</t>
+  </si>
+  <si>
+    <t>מדוע יש לזיעה ריח רע?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי זיעה היא פסולת של הגוף שלנו, ולפסולת יש ריח רע </t>
+  </si>
+  <si>
+    <t>כי חיידקי העור ניזונים מהזיעה ומפרישים פסולת מסריחה</t>
+  </si>
+  <si>
+    <t>זיעה היא הדרך של הגוף שלנו להודיע לנו שהוא מתחמם יותר מידי, הזיעה היא מעין אזעקה</t>
+  </si>
+  <si>
+    <t>בלוטות הרוק מייצרות שתיים עד שש כוסות רוק ביום. זה מספיק רוק כדי למלא:</t>
+  </si>
+  <si>
+    <t>בריכה</t>
+  </si>
+  <si>
+    <t>בקבוק של 2 ליטר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כוס </t>
+  </si>
+  <si>
+    <t>מכסה של בקבוק</t>
+  </si>
+  <si>
+    <t>בערך 15-20% מהדם שמגיע מהלב נשאב דרך:</t>
+  </si>
+  <si>
+    <t>כל הגוף</t>
+  </si>
+  <si>
+    <t>המח</t>
+  </si>
+  <si>
+    <t>הידיים</t>
+  </si>
+  <si>
+    <t>הרגליים</t>
+  </si>
+  <si>
+    <t>המח שלנו צורך כ-25 וואט בזמן שאנו ערים. זה מספיק מתח כדי להדליק:</t>
+  </si>
+  <si>
+    <t>נורה</t>
+  </si>
+  <si>
+    <t>טלוויזיה</t>
+  </si>
+  <si>
+    <t>בטריה</t>
+  </si>
+  <si>
+    <t>טלפון</t>
+  </si>
+  <si>
+    <t>כמה אחוז מעצמות האדם נמצאים ברגליו?</t>
+  </si>
+  <si>
+    <t>אדם נולד עם 300 עצמות, אך בגיל מבוגר יש לו רק:</t>
+  </si>
+  <si>
+    <t>120 עצמות</t>
+  </si>
+  <si>
+    <t>206 עצמות</t>
+  </si>
+  <si>
+    <t>300 עצמות</t>
+  </si>
+  <si>
+    <t>410 עצמות</t>
+  </si>
+  <si>
+    <t>בכמה שרירים האדם משתמש כדי לדבר?</t>
+  </si>
+  <si>
+    <t>בזמן שאנחנו ישנים המוח שלנו:</t>
+  </si>
+  <si>
+    <t>מתכווץ</t>
+  </si>
+  <si>
+    <t>גדל</t>
+  </si>
+  <si>
+    <t>גדל ואז מתכווץ שוב ושוב במשך כל הלילה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">המח שלנו לא משתנה בזמן שאנחנו ישנים </t>
+  </si>
+  <si>
+    <t>השלימו את המשפט: כבר בגיל __ מח האדם הוא 90% מהגודל שיהיה בגיל מבוגר.</t>
+  </si>
+  <si>
+    <t>עבור אילו הבעות פנים משתמשים בהכי הרבה שרירים?</t>
+  </si>
+  <si>
+    <t>חיוך</t>
+  </si>
+  <si>
+    <t>האדם משתמש באותו מספר שרירים לחייך ולהזעיף פנים</t>
+  </si>
+  <si>
+    <t>פרצוף זועף</t>
+  </si>
+  <si>
+    <t>המח האנושי הוא כ-75%:</t>
+  </si>
+  <si>
+    <t>דם</t>
+  </si>
+  <si>
+    <t>הלב דופק יותר מ100,000 פעמים:</t>
+  </si>
+  <si>
+    <t>בדקה</t>
+  </si>
+  <si>
+    <t>בשעה</t>
+  </si>
+  <si>
+    <t>ביום</t>
+  </si>
+  <si>
+    <t>בשבוע</t>
+  </si>
+  <si>
+    <t>השלימו את המשפט: בדיוק כמו טביעת אצבע- ____ של כל אדם שונה.</t>
+  </si>
+  <si>
+    <t>חור הטבור</t>
+  </si>
+  <si>
+    <t>האישון</t>
+  </si>
+  <si>
+    <t>הקול</t>
+  </si>
+  <si>
+    <t>טביעת הלשון</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2608,6 +4703,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2623,7 +4725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2726,11 +4828,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2806,6 +4954,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3088,9 +5315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59:H59"/>
+    <sheetView topLeftCell="B1" zoomScale="97" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3315,10 +5542,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>73</v>
@@ -3373,16 +5600,16 @@
         <v>67</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>2</v>
@@ -3419,10 +5646,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>62</v>
@@ -3746,7 +5973,7 @@
         <v>168</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>2</v>
@@ -3815,16 +6042,16 @@
         <v>128</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>2</v>
@@ -3861,7 +6088,7 @@
         <v>176</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>236</v>
@@ -3902,7 +6129,7 @@
         <v>206</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>2</v>
@@ -3919,16 +6146,16 @@
         <v>581</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>4</v>
@@ -3957,7 +6184,7 @@
         <v>213</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -3980,7 +6207,7 @@
         <v>218</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>5</v>
@@ -4277,7 +6504,7 @@
         <v>272</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>584</v>
@@ -4286,13 +6513,13 @@
         <v>306</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>5</v>
@@ -4303,7 +6530,7 @@
         <v>273</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>313</v>
@@ -4370,7 +6597,7 @@
         <v>324</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="H49" s="19" t="s">
         <v>4</v>
@@ -4422,7 +6649,7 @@
         <v>335</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H51" s="19" t="s">
         <v>4</v>
@@ -4494,10 +6721,10 @@
         <v>304</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>305</v>
@@ -4511,7 +6738,7 @@
         <v>281</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>285</v>
@@ -4630,7 +6857,7 @@
         <v>364</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>5</v>
@@ -4644,16 +6871,16 @@
         <v>365</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>25</v>
@@ -4699,16 +6926,16 @@
         <v>373</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>5</v>
@@ -4725,16 +6952,16 @@
         <v>375</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H63" s="19" t="s">
         <v>3</v>
@@ -4745,22 +6972,22 @@
         <v>389</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>585</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>610</v>
+        <v>1196</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F64" s="18" t="s">
         <v>376</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>4</v>
@@ -4777,16 +7004,16 @@
         <v>586</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>3</v>
@@ -4803,16 +7030,16 @@
         <v>379</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>2</v>
@@ -4829,16 +7056,16 @@
         <v>587</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="H67" s="19" t="s">
         <v>3</v>
@@ -4855,16 +7082,16 @@
         <v>382</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H68" s="19" t="s">
         <v>4</v>
@@ -4881,16 +7108,16 @@
         <v>588</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H69" s="19" t="s">
         <v>4</v>
@@ -4901,19 +7128,19 @@
         <v>395</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>384</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G70" s="18" t="s">
         <v>25</v>
@@ -4959,16 +7186,16 @@
         <v>589</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H72" s="19" t="s">
         <v>2</v>
@@ -4979,7 +7206,7 @@
         <v>430</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>590</v>
@@ -4991,7 +7218,7 @@
         <v>404</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G73" s="18" t="s">
         <v>25</v>
@@ -5008,7 +7235,7 @@
         <v>406</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>407</v>
@@ -5037,13 +7264,13 @@
         <v>591</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G75" s="18" t="s">
         <v>412</v>
@@ -5057,7 +7284,7 @@
         <v>433</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>413</v>
@@ -5069,10 +7296,10 @@
         <v>414</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H76" s="19" t="s">
         <v>3</v>
@@ -5089,16 +7316,16 @@
         <v>592</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H77" s="19" t="s">
         <v>2</v>
@@ -5135,7 +7362,7 @@
         <v>436</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>593</v>
@@ -5144,10 +7371,10 @@
         <v>419</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>25</v>
@@ -5167,16 +7394,16 @@
         <v>421</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>3</v>
@@ -5193,16 +7420,16 @@
         <v>423</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H81" s="19" t="s">
         <v>2</v>
@@ -5245,16 +7472,16 @@
         <v>427</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H83" s="19" t="s">
         <v>5</v>
@@ -5265,22 +7492,22 @@
         <v>441</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F84" s="18" t="s">
         <v>234</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H84" s="19" t="s">
         <v>3</v>
@@ -5291,13 +7518,13 @@
         <v>442</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>428</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E85" s="18">
         <v>1</v>
@@ -5306,7 +7533,7 @@
         <v>62</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H85" s="19" t="s">
         <v>4</v>
@@ -5323,7 +7550,7 @@
         <v>445</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>446</v>
@@ -5355,7 +7582,7 @@
         <v>450</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G87" s="18" t="s">
         <v>452</v>
@@ -5369,22 +7596,22 @@
         <v>484</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>453</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H88" s="19" t="s">
         <v>4</v>
@@ -5401,16 +7628,16 @@
         <v>455</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F89" s="18" t="s">
         <v>456</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H89" s="19" t="s">
         <v>5</v>
@@ -5453,16 +7680,16 @@
         <v>463</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H91" s="19" t="s">
         <v>5</v>
@@ -5476,19 +7703,19 @@
         <v>464</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>596</v>
+        <v>1350</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H92" s="19" t="s">
         <v>4</v>
@@ -5505,16 +7732,16 @@
         <v>466</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>467</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>741</v>
+        <v>1360</v>
       </c>
       <c r="H93" s="19" t="s">
         <v>2</v>
@@ -5531,16 +7758,16 @@
         <v>469</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H94" s="19" t="s">
         <v>5</v>
@@ -5563,10 +7790,10 @@
         <v>473</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="H95" s="19" t="s">
         <v>4</v>
@@ -5609,16 +7836,16 @@
         <v>480</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H97" s="19" t="s">
         <v>3</v>
@@ -5655,22 +7882,22 @@
         <v>495</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F99" s="28" t="s">
         <v>532</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>5</v>
@@ -5684,19 +7911,19 @@
         <v>496</v>
       </c>
       <c r="C100" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="F100" s="18" t="s">
         <v>773</v>
       </c>
-      <c r="D100" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>775</v>
-      </c>
-      <c r="F100" s="18" t="s">
-        <v>776</v>
-      </c>
       <c r="G100" s="18" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="H100" s="19" t="s">
         <v>3</v>
@@ -5713,16 +7940,16 @@
         <v>498</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H101" s="19" t="s">
         <v>5</v>
@@ -5759,22 +7986,22 @@
         <v>523</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H103" s="19" t="s">
         <v>2</v>
@@ -5791,16 +8018,16 @@
         <v>506</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H104" s="19" t="s">
         <v>3</v>
@@ -5817,13 +8044,13 @@
         <v>508</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G105" s="18" t="s">
         <v>25</v>
@@ -5866,19 +8093,19 @@
         <v>513</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H107" s="19" t="s">
         <v>3</v>
@@ -5895,16 +8122,16 @@
         <v>515</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H108" s="19" t="s">
         <v>2</v>
@@ -5915,22 +8142,22 @@
         <v>529</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H109" s="19" t="s">
         <v>4</v>
@@ -5947,16 +8174,16 @@
         <v>517</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>816</v>
+        <v>1447</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>817</v>
+        <v>1449</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H110" s="19" t="s">
         <v>2</v>
@@ -5973,16 +8200,16 @@
         <v>519</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H111" s="19" t="s">
         <v>2</v>
@@ -6025,16 +8252,16 @@
         <v>541</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H113" s="19" t="s">
         <v>3</v>
@@ -6051,16 +8278,16 @@
         <v>543</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H114" s="19" t="s">
         <v>4</v>
@@ -6077,13 +8304,13 @@
         <v>545</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="G115" s="18" t="s">
         <v>25</v>
@@ -6103,16 +8330,16 @@
         <v>547</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H116" s="19" t="s">
         <v>3</v>
@@ -6126,19 +8353,19 @@
         <v>548</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H117" s="19" t="s">
         <v>5</v>
@@ -6155,16 +8382,16 @@
         <v>550</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H118" s="19" t="s">
         <v>2</v>
@@ -6175,7 +8402,7 @@
         <v>571</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C119" s="17" t="s">
         <v>551</v>
@@ -6204,7 +8431,7 @@
         <v>552</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>553</v>
@@ -6230,7 +8457,7 @@
         <v>557</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D121" s="18">
         <v>1</v>
@@ -6256,19 +8483,19 @@
         <v>558</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="H122" s="19" t="s">
         <v>2</v>
@@ -6282,7 +8509,7 @@
         <v>559</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D123" s="18">
         <v>1</v>
@@ -6311,13 +8538,13 @@
         <v>561</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G124" s="18" t="s">
         <v>305</v>
@@ -6340,7 +8567,7 @@
         <v>536</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F125" s="18" t="s">
         <v>328</v>
@@ -6360,19 +8587,19 @@
         <v>564</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H126" s="19" t="s">
         <v>4</v>
@@ -6383,22 +8610,22 @@
         <v>579</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H127" s="23" t="s">
         <v>2</v>
@@ -6409,4 +8636,3324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D36F5D0-4924-4D6A-B0B5-A3584BE64C44}">
+  <dimension ref="A1:I127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="81" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="80.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>844</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>846</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>847</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>848</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>849</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>851</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>852</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>854</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>855</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>856</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>857</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>858</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>859</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>860</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>861</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>862</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>863</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>864</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>865</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>866</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>867</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>868</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>869</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>871</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>872</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>873</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>874</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>875</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>877</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>878</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>879</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>881</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>882</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>838</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>884</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>885</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>886</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>887</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>888</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>839</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>889</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>890</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>891</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>892</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>893</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>840</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>894</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>895</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>896</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>898</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>841</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>899</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>900</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>901</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>902</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>903</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>842</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>904</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>905</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>907</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>906</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>908</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>909</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>923</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>924</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>925</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>926</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>927</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>928</v>
+      </c>
+      <c r="D16" s="36">
+        <v>10</v>
+      </c>
+      <c r="E16" s="36">
+        <v>11</v>
+      </c>
+      <c r="F16" s="36">
+        <v>12</v>
+      </c>
+      <c r="G16" s="36">
+        <v>13</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>911</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>929</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>930</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>933</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>932</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>912</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>938</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>936</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>937</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>913</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>939</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>940</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>941</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>942</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>943</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>914</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>944</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>947</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>948</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>915</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>951</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>916</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>917</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>959</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>962</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>918</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>964</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>919</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>969</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>970</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>920</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>974</v>
+      </c>
+      <c r="D26" s="18">
+        <v>20</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>921</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>922</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>983</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>986</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>988</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>989</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>975</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>990</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>991</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>992</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>993</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>994</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>995</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>996</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>976</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>975</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>997</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>998</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>999</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H46" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D47" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="E47" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="F47" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="52">
+        <v>1</v>
+      </c>
+      <c r="H47" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H48" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H49" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H50" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H51" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H52" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H53" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H54" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F55" s="53" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H56" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H57" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H58" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G59" s="44" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>847</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G63" s="36" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G65" s="36" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G66" s="36" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G67" s="36" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G68" s="36" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B70" s="48" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>847</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G71" s="36" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G72" s="36" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F73" s="36" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>847</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G75" s="36" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E77" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G77" s="36" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F78" s="36" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G78" s="36" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>847</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D80" s="36" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F80" s="36" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G81" s="36" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F84" s="36" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G84" s="36" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E85" s="36">
+        <v>1</v>
+      </c>
+      <c r="F85" s="36">
+        <v>62</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D86" s="44" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E86" s="44" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G86" s="44" t="s">
+        <v>847</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F87" s="36" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" s="45"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G88" s="36" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F91" s="36" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F92" s="36" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G92" s="36" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G93" s="36" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D94" s="36" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F94" s="36" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G94" s="36" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F95" s="36" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E96" s="36" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D97" s="36" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E97" s="36" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F97" s="36" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G97" s="36" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D98" s="36">
+        <v>20</v>
+      </c>
+      <c r="E98" s="36">
+        <v>10</v>
+      </c>
+      <c r="F98" s="36">
+        <v>7.6</v>
+      </c>
+      <c r="G98" s="36">
+        <v>5.4</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A99" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A100" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A101" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A102" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A103" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H103" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A104" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A105" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A106" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A107" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A108" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A109" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A110" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D110" s="45" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E110" s="45" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F110" s="45" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A111" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A112" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A113" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A114" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A115" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A116" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A117" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A118" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A119" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D119" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="E119" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="F119" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G119" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A120" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A121" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C121" s="54" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D121" s="18">
+        <v>1</v>
+      </c>
+      <c r="E121" s="18">
+        <v>12</v>
+      </c>
+      <c r="F121" s="18">
+        <v>60</v>
+      </c>
+      <c r="G121" s="18">
+        <v>72</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A122" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G122" s="18" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A123" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C123" s="55" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D123" s="18">
+        <v>1</v>
+      </c>
+      <c r="E123" s="18">
+        <v>2</v>
+      </c>
+      <c r="F123" s="18">
+        <v>5</v>
+      </c>
+      <c r="G123" s="18">
+        <v>6</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A124" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C124" s="55" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A125" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F125" s="18" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A126" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A127" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/convertExcel/questions.xlsx
+++ b/convertExcel/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\PycharmProjects\FacultyGamePhaser\convertExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED0F2D2-610A-48E7-99C7-986BCD8789B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF07B25-4CA6-4AA4-903A-3E01E17A7655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -940,21 +940,6 @@
     <t>The farts of cows are the most harmful to the environment, because methane gas is 20x more powerful than CO2</t>
   </si>
   <si>
-    <t>Cows farts are the most harmful to the environment because:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The methane gas’ </t>
-  </si>
-  <si>
-    <t>The bad smell</t>
-  </si>
-  <si>
-    <t>They fart a lot</t>
-  </si>
-  <si>
-    <t>The CO2</t>
-  </si>
-  <si>
     <t>A new type of stone has been discovered in the ocean created from stray plastic</t>
   </si>
   <si>
@@ -4667,6 +4652,21 @@
   </si>
   <si>
     <t>טביעת הלשון</t>
+  </si>
+  <si>
+    <t>Why are cows farts are the most harmful to the environment?</t>
+  </si>
+  <si>
+    <t>Because they smell really bad</t>
+  </si>
+  <si>
+    <t>Because cows fart alot</t>
+  </si>
+  <si>
+    <t>Because of the CO2 in their farts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because of the methane gas in their farts </t>
   </si>
 </sst>
 </file>
@@ -5315,9 +5315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5363,7 +5363,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
@@ -5542,10 +5542,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>73</v>
@@ -5600,16 +5600,16 @@
         <v>67</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>2</v>
@@ -5646,10 +5646,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>62</v>
@@ -5973,7 +5973,7 @@
         <v>168</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>2</v>
@@ -6042,16 +6042,16 @@
         <v>128</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>2</v>
@@ -6088,7 +6088,7 @@
         <v>176</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>236</v>
@@ -6129,7 +6129,7 @@
         <v>206</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>2</v>
@@ -6143,19 +6143,19 @@
         <v>207</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>4</v>
@@ -6207,7 +6207,7 @@
         <v>218</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>5</v>
@@ -6403,7 +6403,7 @@
         <v>225</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>226</v>
@@ -6452,22 +6452,22 @@
         <v>270</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>2</v>
@@ -6481,19 +6481,19 @@
         <v>290</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>291</v>
+        <v>1529</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>292</v>
+        <v>1533</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>293</v>
+        <v>1530</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>294</v>
+        <v>1531</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>295</v>
+        <v>1532</v>
       </c>
       <c r="H45" s="19" t="s">
         <v>2</v>
@@ -6504,22 +6504,22 @@
         <v>272</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>5</v>
@@ -6530,10 +6530,10 @@
         <v>273</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D47" s="24">
         <v>0.01</v>
@@ -6556,22 +6556,22 @@
         <v>274</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G48" s="18" t="s">
         <v>314</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>319</v>
       </c>
       <c r="H48" s="19" t="s">
         <v>4</v>
@@ -6582,22 +6582,22 @@
         <v>275</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="H49" s="19" t="s">
         <v>4</v>
@@ -6608,22 +6608,22 @@
         <v>276</v>
       </c>
       <c r="B50" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" s="18" t="s">
         <v>325</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>330</v>
       </c>
       <c r="H50" s="19" t="s">
         <v>2</v>
@@ -6634,22 +6634,22 @@
         <v>277</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H51" s="19" t="s">
         <v>4</v>
@@ -6660,22 +6660,22 @@
         <v>278</v>
       </c>
       <c r="B52" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="G52" s="18" t="s">
         <v>336</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>341</v>
       </c>
       <c r="H52" s="19" t="s">
         <v>2</v>
@@ -6686,22 +6686,22 @@
         <v>279</v>
       </c>
       <c r="B53" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="G53" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>301</v>
       </c>
       <c r="H53" s="19" t="s">
         <v>4</v>
@@ -6712,22 +6712,22 @@
         <v>280</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>4</v>
@@ -6738,7 +6738,7 @@
         <v>281</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>285</v>
@@ -6764,22 +6764,22 @@
         <v>282</v>
       </c>
       <c r="B56" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" s="18" t="s">
         <v>307</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>312</v>
       </c>
       <c r="H56" s="19" t="s">
         <v>3</v>
@@ -6790,22 +6790,22 @@
         <v>283</v>
       </c>
       <c r="B57" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G57" s="18" t="s">
         <v>342</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>347</v>
       </c>
       <c r="H57" s="19" t="s">
         <v>4</v>
@@ -6816,22 +6816,22 @@
         <v>284</v>
       </c>
       <c r="B58" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G58" s="18" t="s">
         <v>353</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>358</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>2</v>
@@ -6839,25 +6839,25 @@
     </row>
     <row r="59" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B59" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="F59" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>364</v>
-      </c>
       <c r="G59" s="18" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>5</v>
@@ -6865,22 +6865,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>25</v>
@@ -6891,25 +6891,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B61" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G61" s="18" t="s">
         <v>366</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>371</v>
       </c>
       <c r="H61" s="19" t="s">
         <v>2</v>
@@ -6917,25 +6917,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="16" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>5</v>
@@ -6943,25 +6943,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="16" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H63" s="19" t="s">
         <v>3</v>
@@ -6969,25 +6969,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="16" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>4</v>
@@ -6995,25 +6995,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="16" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>3</v>
@@ -7021,25 +7021,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>2</v>
@@ -7047,25 +7047,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="H67" s="19" t="s">
         <v>3</v>
@@ -7073,25 +7073,25 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="16" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H68" s="19" t="s">
         <v>4</v>
@@ -7099,25 +7099,25 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="16" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H69" s="19" t="s">
         <v>4</v>
@@ -7125,22 +7125,22 @@
     </row>
     <row r="70" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="16" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G70" s="18" t="s">
         <v>25</v>
@@ -7151,25 +7151,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="G71" s="14" t="s">
         <v>397</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>402</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>2</v>
@@ -7177,25 +7177,25 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="16" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H72" s="19" t="s">
         <v>2</v>
@@ -7203,22 +7203,22 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="16" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G73" s="18" t="s">
         <v>25</v>
@@ -7229,25 +7229,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="16" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H74" s="19" t="s">
         <v>4</v>
@@ -7255,25 +7255,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="16" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H75" s="19" t="s">
         <v>5</v>
@@ -7281,25 +7281,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="16" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H76" s="19" t="s">
         <v>3</v>
@@ -7307,25 +7307,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="16" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="H77" s="19" t="s">
         <v>2</v>
@@ -7333,25 +7333,25 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="16" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H78" s="19" t="s">
         <v>3</v>
@@ -7359,22 +7359,22 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="16" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>25</v>
@@ -7385,25 +7385,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="16" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>3</v>
@@ -7411,25 +7411,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="16" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H81" s="19" t="s">
         <v>2</v>
@@ -7437,25 +7437,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="16" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H82" s="19" t="s">
         <v>4</v>
@@ -7463,25 +7463,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="16" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H83" s="19" t="s">
         <v>5</v>
@@ -7489,25 +7489,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="16" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F84" s="18" t="s">
         <v>234</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="H84" s="19" t="s">
         <v>3</v>
@@ -7515,16 +7515,16 @@
     </row>
     <row r="85" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="16" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E85" s="18">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         <v>62</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="H85" s="19" t="s">
         <v>4</v>
@@ -7541,22 +7541,22 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="12" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>25</v>
@@ -7567,25 +7567,25 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="16" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H87" s="19" t="s">
         <v>3</v>
@@ -7593,25 +7593,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="16" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H88" s="19" t="s">
         <v>4</v>
@@ -7619,25 +7619,25 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="16" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H89" s="19" t="s">
         <v>5</v>
@@ -7645,25 +7645,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="16" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H90" s="19" t="s">
         <v>3</v>
@@ -7671,25 +7671,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="16" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="H91" s="19" t="s">
         <v>5</v>
@@ -7697,25 +7697,25 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="16" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H92" s="19" t="s">
         <v>4</v>
@@ -7723,25 +7723,25 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="16" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="H93" s="19" t="s">
         <v>2</v>
@@ -7749,25 +7749,25 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="16" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="H94" s="19" t="s">
         <v>5</v>
@@ -7775,25 +7775,25 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="16" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="H95" s="19" t="s">
         <v>4</v>
@@ -7801,25 +7801,25 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="16" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H96" s="19" t="s">
         <v>3</v>
@@ -7827,25 +7827,25 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="16" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H97" s="19" t="s">
         <v>3</v>
@@ -7853,13 +7853,13 @@
     </row>
     <row r="98" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="16" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D98" s="18">
         <v>20</v>
@@ -7879,25 +7879,25 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="12" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F99" s="28" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>5</v>
@@ -7905,25 +7905,25 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="16" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H100" s="19" t="s">
         <v>3</v>
@@ -7931,25 +7931,25 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="16" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="H101" s="19" t="s">
         <v>5</v>
@@ -7957,25 +7957,25 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="16" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B102" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="G102" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>504</v>
       </c>
       <c r="H102" s="19" t="s">
         <v>3</v>
@@ -7983,25 +7983,25 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="16" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H103" s="19" t="s">
         <v>2</v>
@@ -8009,25 +8009,25 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="16" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="H104" s="19" t="s">
         <v>3</v>
@@ -8035,22 +8035,22 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="16" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G105" s="18" t="s">
         <v>25</v>
@@ -8061,25 +8061,25 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="16" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H106" s="19" t="s">
         <v>2</v>
@@ -8087,25 +8087,25 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="16" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H107" s="19" t="s">
         <v>3</v>
@@ -8113,25 +8113,25 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="16" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="H108" s="19" t="s">
         <v>2</v>
@@ -8139,25 +8139,25 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="16" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="H109" s="19" t="s">
         <v>4</v>
@@ -8165,25 +8165,25 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="16" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H110" s="19" t="s">
         <v>2</v>
@@ -8191,25 +8191,25 @@
     </row>
     <row r="111" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="16" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H111" s="19" t="s">
         <v>2</v>
@@ -8217,25 +8217,25 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="G112" s="14" t="s">
         <v>533</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="G112" s="14" t="s">
-        <v>538</v>
       </c>
       <c r="H112" s="15" t="s">
         <v>4</v>
@@ -8243,25 +8243,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="16" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="H113" s="19" t="s">
         <v>3</v>
@@ -8269,25 +8269,25 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="16" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H114" s="19" t="s">
         <v>4</v>
@@ -8295,22 +8295,22 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="16" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G115" s="18" t="s">
         <v>25</v>
@@ -8321,25 +8321,25 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="16" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="H116" s="19" t="s">
         <v>3</v>
@@ -8347,25 +8347,25 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="16" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="H117" s="19" t="s">
         <v>5</v>
@@ -8373,25 +8373,25 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="16" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="H118" s="19" t="s">
         <v>2</v>
@@ -8399,13 +8399,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="16" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D119" s="18">
         <v>0.02</v>
@@ -8425,25 +8425,25 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="16" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H120" s="19" t="s">
         <v>3</v>
@@ -8451,13 +8451,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="16" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D121" s="18">
         <v>1</v>
@@ -8477,25 +8477,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="16" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="H122" s="19" t="s">
         <v>2</v>
@@ -8503,13 +8503,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="16" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D123" s="18">
         <v>1</v>
@@ -8529,25 +8529,25 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H124" s="19" t="s">
         <v>3</v>
@@ -8555,22 +8555,22 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="16" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G125" s="18" t="s">
         <v>25</v>
@@ -8581,25 +8581,25 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="16" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="H126" s="19" t="s">
         <v>4</v>
@@ -8607,25 +8607,25 @@
     </row>
     <row r="127" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A127" s="20" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="H127" s="23" t="s">
         <v>2</v>
@@ -8642,7 +8642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D36F5D0-4924-4D6A-B0B5-A3584BE64C44}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="81" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="A108" zoomScale="81" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
@@ -8682,22 +8682,22 @@
         <v>9</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
@@ -8708,22 +8708,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>2</v>
@@ -8734,22 +8734,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>851</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>852</v>
+      </c>
+      <c r="G4" s="36" t="s">
         <v>853</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>854</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>855</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>857</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>858</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -8760,22 +8760,22 @@
         <v>12</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>3</v>
@@ -8786,22 +8786,22 @@
         <v>13</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>3</v>
@@ -8812,22 +8812,22 @@
         <v>14</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>3</v>
@@ -8838,22 +8838,22 @@
         <v>15</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>2</v>
@@ -8864,22 +8864,22 @@
         <v>16</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>4</v>
@@ -8890,22 +8890,22 @@
         <v>17</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>4</v>
@@ -8916,22 +8916,22 @@
         <v>18</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>2</v>
@@ -8942,22 +8942,22 @@
         <v>19</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>4</v>
@@ -8968,22 +8968,22 @@
         <v>20</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>4</v>
@@ -8994,22 +8994,22 @@
         <v>21</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>4</v>
@@ -9020,22 +9020,22 @@
         <v>88</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>2</v>
@@ -9046,10 +9046,10 @@
         <v>89</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D16" s="36">
         <v>10</v>
@@ -9072,22 +9072,22 @@
         <v>90</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>3</v>
@@ -9098,22 +9098,22 @@
         <v>91</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>4</v>
@@ -9124,22 +9124,22 @@
         <v>92</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>3</v>
@@ -9150,22 +9150,22 @@
         <v>93</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>2</v>
@@ -9176,22 +9176,22 @@
         <v>94</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>3</v>
@@ -9202,22 +9202,22 @@
         <v>95</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>4</v>
@@ -9229,22 +9229,22 @@
         <v>96</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>3</v>
@@ -9255,22 +9255,22 @@
         <v>97</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>3</v>
@@ -9281,22 +9281,22 @@
         <v>98</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>2</v>
@@ -9307,22 +9307,22 @@
         <v>99</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D26" s="18">
         <v>20</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>4</v>
@@ -9333,22 +9333,22 @@
         <v>100</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>2</v>
@@ -9359,22 +9359,22 @@
         <v>101</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>2</v>
@@ -9385,22 +9385,22 @@
         <v>175</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="H29" s="46" t="s">
         <v>4</v>
@@ -9411,22 +9411,22 @@
         <v>176</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="H30" s="47" t="s">
         <v>4</v>
@@ -9437,22 +9437,22 @@
         <v>177</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="H31" s="47" t="s">
         <v>2</v>
@@ -9463,22 +9463,22 @@
         <v>178</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="H32" s="47" t="s">
         <v>4</v>
@@ -9489,22 +9489,22 @@
         <v>179</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="H33" s="47" t="s">
         <v>5</v>
@@ -9515,22 +9515,22 @@
         <v>180</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="H34" s="47" t="s">
         <v>5</v>
@@ -9541,22 +9541,22 @@
         <v>181</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="H35" s="47" t="s">
         <v>2</v>
@@ -9567,22 +9567,22 @@
         <v>182</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="H36" s="47" t="s">
         <v>4</v>
@@ -9593,22 +9593,22 @@
         <v>183</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="H37" s="47" t="s">
         <v>5</v>
@@ -9619,22 +9619,22 @@
         <v>184</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="H38" s="47" t="s">
         <v>4</v>
@@ -9645,22 +9645,22 @@
         <v>185</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="H39" s="47" t="s">
         <v>2</v>
@@ -9671,22 +9671,22 @@
         <v>186</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="H40" s="47" t="s">
         <v>2</v>
@@ -9697,22 +9697,22 @@
         <v>187</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="H41" s="47" t="s">
         <v>3</v>
@@ -9723,22 +9723,22 @@
         <v>188</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="H42" s="47" t="s">
         <v>2</v>
@@ -9749,22 +9749,22 @@
         <v>189</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="H43" s="49" t="s">
         <v>3</v>
@@ -9775,20 +9775,20 @@
         <v>270</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="E44" s="44"/>
       <c r="F44" s="44" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="H44" s="46" t="s">
         <v>2</v>
@@ -9799,22 +9799,22 @@
         <v>271</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="H45" s="47" t="s">
         <v>2</v>
@@ -9825,22 +9825,22 @@
         <v>272</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="H46" s="47" t="s">
         <v>5</v>
@@ -9851,10 +9851,10 @@
         <v>273</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="D47" s="52">
         <v>0.01</v>
@@ -9877,22 +9877,22 @@
         <v>274</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="H48" s="47" t="s">
         <v>4</v>
@@ -9903,22 +9903,22 @@
         <v>275</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="H49" s="47" t="s">
         <v>4</v>
@@ -9929,22 +9929,22 @@
         <v>276</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="H50" s="47" t="s">
         <v>2</v>
@@ -9955,22 +9955,22 @@
         <v>277</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="H51" s="47" t="s">
         <v>4</v>
@@ -9981,22 +9981,22 @@
         <v>278</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="H52" s="47" t="s">
         <v>2</v>
@@ -10007,22 +10007,22 @@
         <v>279</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="H53" s="47" t="s">
         <v>4</v>
@@ -10033,22 +10033,22 @@
         <v>280</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="H54" s="47" t="s">
         <v>4</v>
@@ -10059,22 +10059,22 @@
         <v>281</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="F55" s="53" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="H55" s="47" t="s">
         <v>2</v>
@@ -10085,22 +10085,22 @@
         <v>282</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="H56" s="47" t="s">
         <v>3</v>
@@ -10111,22 +10111,22 @@
         <v>283</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="H57" s="47" t="s">
         <v>4</v>
@@ -10137,22 +10137,22 @@
         <v>284</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="H58" s="47" t="s">
         <v>2</v>
@@ -10160,25 +10160,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>5</v>
@@ -10186,25 +10186,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H60" s="19" t="s">
         <v>4</v>
@@ -10212,25 +10212,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="H61" s="19" t="s">
         <v>2</v>
@@ -10238,25 +10238,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="16" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>5</v>
@@ -10264,25 +10264,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="16" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="H63" s="19" t="s">
         <v>3</v>
@@ -10290,25 +10290,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="16" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>4</v>
@@ -10316,25 +10316,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="16" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>3</v>
@@ -10342,25 +10342,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F66" s="36" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>2</v>
@@ -10368,25 +10368,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="H67" s="19" t="s">
         <v>3</v>
@@ -10394,25 +10394,25 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="16" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="H68" s="19" t="s">
         <v>4</v>
@@ -10420,25 +10420,25 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="16" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="H69" s="19" t="s">
         <v>4</v>
@@ -10446,25 +10446,25 @@
     </row>
     <row r="70" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="20" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B70" s="48" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="C70" s="48" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H70" s="23" t="s">
         <v>2</v>
@@ -10472,25 +10472,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="16" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="H71" s="19" t="s">
         <v>2</v>
@@ -10498,25 +10498,25 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="16" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="G72" s="36" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="H72" s="19" t="s">
         <v>2</v>
@@ -10524,25 +10524,25 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="16" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="G73" s="36" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H73" s="19" t="s">
         <v>3</v>
@@ -10550,25 +10550,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="16" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="G74" s="36" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="H74" s="19" t="s">
         <v>4</v>
@@ -10576,25 +10576,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="16" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B75" s="37" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G75" s="36" t="s">
         <v>1264</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D75" s="36" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E75" s="36" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F75" s="36" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G75" s="36" t="s">
-        <v>1269</v>
       </c>
       <c r="H75" s="19" t="s">
         <v>5</v>
@@ -10602,25 +10602,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="16" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="H76" s="19" t="s">
         <v>3</v>
@@ -10628,25 +10628,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="16" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="H77" s="19" t="s">
         <v>2</v>
@@ -10654,25 +10654,25 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="16" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="H78" s="19" t="s">
         <v>3</v>
@@ -10680,25 +10680,25 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="16" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="G79" s="36" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H79" s="19" t="s">
         <v>4</v>
@@ -10706,25 +10706,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="16" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="G80" s="36" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>3</v>
@@ -10732,25 +10732,25 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="16" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="H81" s="19" t="s">
         <v>2</v>
@@ -10758,25 +10758,25 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="16" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="H82" s="19" t="s">
         <v>4</v>
@@ -10784,25 +10784,25 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="16" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="E83" s="36" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="G83" s="36" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="H83" s="19" t="s">
         <v>5</v>
@@ -10810,25 +10810,25 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="16" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="E84" s="36" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="F84" s="36" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="H84" s="19" t="s">
         <v>3</v>
@@ -10836,16 +10836,16 @@
     </row>
     <row r="85" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="16" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="D85" s="36" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="E85" s="36">
         <v>1</v>
@@ -10854,7 +10854,7 @@
         <v>62</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="H85" s="19" t="s">
         <v>4</v>
@@ -10862,25 +10862,25 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="12" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="D86" s="44" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="E86" s="44" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="F86" s="44" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="G86" s="44" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H86" s="15" t="s">
         <v>2</v>
@@ -10888,25 +10888,25 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="16" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="F87" s="36" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="G87" s="36" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="H87" s="19" t="s">
         <v>3</v>
@@ -10915,25 +10915,25 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="16" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="F88" s="36" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="H88" s="19" t="s">
         <v>4</v>
@@ -10941,25 +10941,25 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="16" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="G89" s="36" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="H89" s="19" t="s">
         <v>5</v>
@@ -10967,25 +10967,25 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="16" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="D90" s="36" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="E90" s="36" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="G90" s="36" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="H90" s="19" t="s">
         <v>3</v>
@@ -10993,25 +10993,25 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="16" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="D91" s="36" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="E91" s="36" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="F91" s="36" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="G91" s="36" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="H91" s="19" t="s">
         <v>5</v>
@@ -11019,25 +11019,25 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="16" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="D92" s="36" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="E92" s="36" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="F92" s="36" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="H92" s="19" t="s">
         <v>4</v>
@@ -11045,25 +11045,25 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="16" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="C93" s="37" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G93" s="36" t="s">
         <v>1356</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E93" s="36" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F93" s="36" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G93" s="36" t="s">
-        <v>1361</v>
       </c>
       <c r="H93" s="19" t="s">
         <v>2</v>
@@ -11071,25 +11071,25 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="16" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="E94" s="36" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="H94" s="19" t="s">
         <v>5</v>
@@ -11097,25 +11097,25 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="16" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="E95" s="36" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="H95" s="19" t="s">
         <v>4</v>
@@ -11123,25 +11123,25 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="16" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="D96" s="36" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="E96" s="36" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="G96" s="36" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="H96" s="19" t="s">
         <v>3</v>
@@ -11149,25 +11149,25 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="16" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="E97" s="36" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="H97" s="19" t="s">
         <v>3</v>
@@ -11175,13 +11175,13 @@
     </row>
     <row r="98" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="16" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="D98" s="36">
         <v>20</v>
@@ -11201,25 +11201,25 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="12" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="F99" s="28" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>5</v>
@@ -11227,25 +11227,25 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="16" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="H100" s="19" t="s">
         <v>3</v>
@@ -11253,25 +11253,25 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="16" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="H101" s="19" t="s">
         <v>5</v>
@@ -11279,25 +11279,25 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="16" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="H102" s="19" t="s">
         <v>3</v>
@@ -11305,25 +11305,25 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="16" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="H103" s="19" t="s">
         <v>2</v>
@@ -11331,25 +11331,25 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="16" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="H104" s="19" t="s">
         <v>3</v>
@@ -11357,25 +11357,25 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="16" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="C105" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H105" s="19" t="s">
         <v>4</v>
@@ -11383,25 +11383,25 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="16" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="H106" s="19" t="s">
         <v>2</v>
@@ -11409,25 +11409,25 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="16" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="H107" s="19" t="s">
         <v>3</v>
@@ -11435,25 +11435,25 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="16" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="H108" s="19" t="s">
         <v>2</v>
@@ -11461,25 +11461,25 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="16" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="H109" s="19" t="s">
         <v>4</v>
@@ -11487,25 +11487,25 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="16" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="C110" s="17" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D110" s="45" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E110" s="45" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F110" s="45" t="s">
         <v>1445</v>
       </c>
-      <c r="D110" s="45" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E110" s="45" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F110" s="45" t="s">
-        <v>1450</v>
-      </c>
       <c r="G110" s="18" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H110" s="19" t="s">
         <v>2</v>
@@ -11513,25 +11513,25 @@
     </row>
     <row r="111" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="16" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="H111" s="19" t="s">
         <v>2</v>
@@ -11539,25 +11539,25 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="12" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="H112" s="15" t="s">
         <v>4</v>
@@ -11565,25 +11565,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="16" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="H113" s="19" t="s">
         <v>3</v>
@@ -11591,25 +11591,25 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="16" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="H114" s="19" t="s">
         <v>4</v>
@@ -11617,25 +11617,25 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="16" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H115" s="19" t="s">
         <v>3</v>
@@ -11643,25 +11643,25 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="16" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="H116" s="19" t="s">
         <v>3</v>
@@ -11669,25 +11669,25 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="16" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="H117" s="19" t="s">
         <v>5</v>
@@ -11695,25 +11695,25 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="16" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="H118" s="19" t="s">
         <v>2</v>
@@ -11721,13 +11721,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="16" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="D119" s="24">
         <v>0.02</v>
@@ -11747,25 +11747,25 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="16" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="H120" s="19" t="s">
         <v>3</v>
@@ -11773,13 +11773,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="16" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="C121" s="54" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="D121" s="18">
         <v>1</v>
@@ -11799,25 +11799,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="16" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="H122" s="19" t="s">
         <v>2</v>
@@ -11825,13 +11825,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="16" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="C123" s="55" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="D123" s="18">
         <v>1</v>
@@ -11851,25 +11851,25 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="C124" s="55" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="H124" s="19" t="s">
         <v>3</v>
@@ -11877,25 +11877,25 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="16" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B125" s="17" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D125" s="18" t="s">
         <v>1469</v>
       </c>
-      <c r="C125" s="17" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>1474</v>
-      </c>
       <c r="E125" s="18" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H125" s="19" t="s">
         <v>4</v>
@@ -11903,25 +11903,25 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="16" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="H126" s="19" t="s">
         <v>4</v>
@@ -11929,25 +11929,25 @@
     </row>
     <row r="127" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A127" s="20" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="H127" s="23" t="s">
         <v>2</v>
